--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="PF" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="PRESUPUESTO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
   <si>
     <t>Funcionalidades</t>
   </si>
@@ -625,12 +625,6 @@
     <t>Precio</t>
   </si>
   <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Costo Proyecto</t>
-  </si>
-  <si>
     <t>Sprint 1: Módulo de usuarios</t>
   </si>
   <si>
@@ -692,6 +686,27 @@
   </si>
   <si>
     <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>Costos Admiinstrativos</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Software y manuales</t>
+  </si>
+  <si>
+    <t>Material Fungible</t>
+  </si>
+  <si>
+    <t>Imprevistos (10%)</t>
+  </si>
+  <si>
+    <t>Sub-Total</t>
   </si>
 </sst>
 </file>
@@ -832,14 +847,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,6 +888,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1086,7 +1107,7 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1147,7 +1168,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
@@ -1160,57 +1180,6 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,21 +1189,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1265,9 +1219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFill="1"/>
@@ -1280,13 +1231,98 @@
     <xf numFmtId="6" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
@@ -1630,30 +1666,30 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="52" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="34" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1661,21 +1697,21 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="38">
         <v>4</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52">
+      <c r="E6" s="35"/>
+      <c r="F6" s="34">
         <v>1</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="36" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="4">
@@ -1683,21 +1719,21 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="38">
         <v>4</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34">
         <v>2</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="36" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="4">
@@ -1705,21 +1741,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="38">
         <v>3</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="52">
+      <c r="E8" s="35"/>
+      <c r="F8" s="34">
         <v>3</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="4">
@@ -1727,21 +1763,21 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="38">
         <v>4</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="52">
+      <c r="E9" s="35"/>
+      <c r="F9" s="34">
         <v>4</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="36" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="4">
@@ -1749,21 +1785,21 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="38">
         <v>4</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="52">
+      <c r="E10" s="35"/>
+      <c r="F10" s="34">
         <v>5</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="36" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="4">
@@ -1771,21 +1807,21 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="38">
         <v>4</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52">
+      <c r="E11" s="35"/>
+      <c r="F11" s="34">
         <v>6</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="36" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="4">
@@ -1793,21 +1829,21 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="55" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="38">
         <v>3</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="52">
+      <c r="E12" s="35"/>
+      <c r="F12" s="34">
         <v>7</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="36" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="4">
@@ -1815,85 +1851,85 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="38">
+        <v>4</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="38">
+        <v>3</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C16" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="38">
+        <v>4</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D17" s="38">
         <v>4</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="56">
-        <v>4</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="56">
-        <v>3</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="56">
-        <v>4</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="56">
-        <v>4</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="52">
+      <c r="E17" s="35"/>
+      <c r="F17" s="34">
         <v>8</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="36" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="4">
@@ -1902,21 +1938,21 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="38">
         <v>3</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="52">
+      <c r="E18" s="35"/>
+      <c r="F18" s="34">
         <v>9</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="36" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="4">
@@ -1924,37 +1960,37 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="38">
         <v>4</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="54"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="38">
         <v>4</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52">
+      <c r="E20" s="35"/>
+      <c r="F20" s="34">
         <v>10</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="36" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="4">
@@ -1962,21 +1998,21 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="38">
         <v>3</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52">
+      <c r="E21" s="35"/>
+      <c r="F21" s="34">
         <v>11</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="36" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="4">
@@ -1984,21 +2020,21 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="38">
         <v>4</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="52">
+      <c r="E22" s="35"/>
+      <c r="F22" s="34">
         <v>12</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="36" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="4">
@@ -2006,21 +2042,21 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="38">
         <v>4</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="52">
+      <c r="E23" s="35"/>
+      <c r="F23" s="34">
         <v>13</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="36" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="4">
@@ -2028,21 +2064,21 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="56">
+      <c r="D24" s="38">
         <v>4</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="52">
+      <c r="E24" s="35"/>
+      <c r="F24" s="34">
         <v>14</v>
       </c>
-      <c r="G24" s="54" t="s">
+      <c r="G24" s="36" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="4">
@@ -2050,19 +2086,19 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="38">
         <v>3</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52" t="s">
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="2">
@@ -2071,298 +2107,298 @@
       </c>
     </row>
     <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="56">
+      <c r="D26" s="38">
         <v>4</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="55" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="38">
         <v>70</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="34">
         <f>SUM(D6:D27)</f>
         <v>148</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="57" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="64">
         <f>(H25*0.01)+0.65</f>
         <v>1.04</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="63">
         <f>D28*C31</f>
         <v>153.92000000000002</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="57" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="60">
+      <c r="C37" s="64">
         <v>8</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="63">
         <f>C34*C37</f>
         <v>1231.3600000000001</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="57" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="61">
+      <c r="C41" s="63">
         <f>(C34/150) * C34^0.4</f>
         <v>7.6934620793920665</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="39">
         <f>C34*C37</f>
         <v>1231.3600000000001</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="63" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="40">
         <f>C43/6</f>
         <v>205.22666666666669</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="64" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="35">
         <f>C44/20</f>
         <v>10.261333333333335</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="53">
+      <c r="A46" s="35"/>
+      <c r="B46" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C46" s="35">
         <f>C45/4</f>
         <v>2.5653333333333337</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
+      <c r="A49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2399,18 +2435,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2440,17 +2476,17 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>12505.220993844623</v>
+        <v>22678.086287695787</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.12355562170544587</v>
+        <v>0.19027019722502014</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="69" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2461,15 +2497,15 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>17110.863677053312</v>
+        <v>75293.16449414927</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16906085870662235</v>
+        <v>0.63171314705555193</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2478,15 +2514,15 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88106.997217634183</v>
+        <v>2328.4232671803006</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87052558472842612</v>
+        <v>1.9535579353981536E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
@@ -2495,15 +2531,15 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>94904.130796415935</v>
+        <v>76769.30941576905</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93768345947168119</v>
+        <v>0.64409807150668141</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="68" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2514,15 +2550,15 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52104.147532762225</v>
+        <v>48909.352684425481</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51480580351291139</v>
+        <v>0.41035174059033186</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2531,15 +2567,15 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35160.620470836402</v>
+        <v>97045.773478279531</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34739828460143052</v>
+        <v>0.81421854672037264</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2548,15 +2584,15 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7706.5057775011492</v>
+        <v>21077.597478801516</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6142765728366757E-2</v>
+        <v>0.1768420217845742</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="68" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2567,15 +2603,15 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86799.632291813483</v>
+        <v>44941.963594161396</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85760839707655001</v>
+        <v>0.37706516185981065</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="8" t="s">
         <v>113</v>
       </c>
@@ -2584,15 +2620,15 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>87574.836611675972</v>
+        <v>63162.874790584712</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8652676660919878</v>
+        <v>0.52993945305800749</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2601,15 +2637,15 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>62532.929095975189</v>
+        <v>58237.161145198814</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61784553310324153</v>
+        <v>0.48861248680115699</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="68" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2620,15 +2656,15 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>55679.352734328626</v>
+        <v>84930.202071800784</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55012998543832592</v>
+        <v>0.7125683399189614</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -2637,15 +2673,15 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>20968.701863396651</v>
+        <v>98827.682103512721</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2071775457917433</v>
+        <v>0.8291688428458458</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2654,15 +2690,15 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>72939.068203492134</v>
+        <v>51417.606646124703</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7206615479194115</v>
+        <v>0.43139610782346494</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="68" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2673,15 +2709,15 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7891.4428848377165</v>
+        <v>39464.720012249141</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7970004070226029E-2</v>
+        <v>0.33111083381999928</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2690,31 +2726,31 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>98015.549848432449</v>
+        <v>14916.082530066749</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96842528446999965</v>
+        <v>0.12514662519651443</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>800000</v>
       </c>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2744,16 +2780,16 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>151861.55805691364</v>
+        <v>250530.03770059085</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>0.59892114525195328</v>
+        <v>0.79645188982537407</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2764,15 +2800,15 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>15813.23902066576</v>
+        <v>170365.82057178911</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2365244671403808E-2</v>
+        <v>0.54160443594477625</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2781,15 +2817,15 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>96579.644547211414</v>
+        <v>50262.01835694359</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3808968646203682</v>
+        <v>0.15978634687576609</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2798,15 +2834,15 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>114911.81650631705</v>
+        <v>3208.3411857842179</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45319643513174446</v>
+        <v>1.019953305430088E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="68" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2817,15 +2853,15 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>241238.62937087205</v>
+        <v>59640.097120935628</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95141204943825119</v>
+        <v>0.18959989188244952</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="8" t="s">
         <v>130</v>
       </c>
@@ -2834,15 +2870,15 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>185285.12833385466</v>
+        <v>187799.35950643409</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73073911975984296</v>
+        <v>0.59702683223019171</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="8" t="s">
         <v>131</v>
       </c>
@@ -2851,15 +2887,15 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>145495.77820172484</v>
+        <v>251838.20036962145</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5738153830691195</v>
+        <v>0.80061062719479725</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="68" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2870,15 +2906,15 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>15233.186659185365</v>
+        <v>240614.80146963804</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0077597757405066E-2</v>
+        <v>0.7649306849962545</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="8" t="s">
         <v>134</v>
       </c>
@@ -2887,15 +2923,15 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>232254.81697296497</v>
+        <v>102828.72875842189</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9159811261754548</v>
+        <v>0.32689946522844737</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
@@ -2904,15 +2940,15 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>160910.3435946391</v>
+        <v>119695.77860748688</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63460831366203074</v>
+        <v>0.38052095449721668</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="68" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2923,15 +2959,15 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>87200.439783776295</v>
+        <v>6885.8513761184386</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34390656812700626</v>
+        <v>2.1890586022744407E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="8" t="s">
         <v>138</v>
       </c>
@@ -2940,15 +2976,15 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>253250.53510405609</v>
+        <v>199066.82426514753</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99878535727485929</v>
+        <v>0.63284686276618263</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
@@ -2957,15 +2993,15 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>134198.29667093331</v>
+        <v>166133.85946585162</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52925966624742959</v>
+        <v>0.52815074611409996</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="68" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -2976,15 +3012,15 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>60426.629410468224</v>
+        <v>119011.12540983927</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23831433414287539</v>
+        <v>0.37834439579732493</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="36"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -2993,11 +3029,11 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>105339.95776641752</v>
+        <v>72119.155835397556</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41544633779281126</v>
+        <v>0.22927166133411547</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,12 +3048,12 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3047,16 +3083,16 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>21717.895791532854</v>
+        <v>142651.79152136287</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.10740661721629985</v>
+        <v>0.64408843340534838</v>
       </c>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="69" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3067,15 +3103,15 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>104677.19313615852</v>
+        <v>180377.7433723475</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51768473899922574</v>
+        <v>0.81442523021162894</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
@@ -3084,15 +3120,15 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>104740.14666886839</v>
+        <v>81037.437400560462</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51799607790862501</v>
+        <v>0.36589288887195259</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
@@ -3101,15 +3137,15 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>176951.32910263748</v>
+        <v>41016.72131758873</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87511901950704851</v>
+        <v>0.18519498069474427</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="68" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3120,15 +3156,15 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>115862.14186191044</v>
+        <v>179826.11792925181</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57300029617392878</v>
+        <v>0.81193458103238736</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3137,15 +3173,15 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>70149.314021224593</v>
+        <v>69023.284103679442</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34692589887097436</v>
+        <v>0.31164767334992416</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3154,15 +3190,15 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>118658.41706644752</v>
+        <v>165984.36321759594</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58682937351217801</v>
+        <v>0.74943754532935936</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="68" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3173,15 +3209,15 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>145266.63381193799</v>
+        <v>138972.87220644392</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71842124494501924</v>
+        <v>0.62747771051922197</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
@@ -3190,15 +3226,15 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>117758.0242274154</v>
+        <v>130575.53965309974</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58237644906984209</v>
+        <v>0.58956283604491722</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="8" t="s">
         <v>156</v>
       </c>
@@ -3207,15 +3243,15 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>180229.89369691414</v>
+        <v>163761.35825104977</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89133327597906242</v>
+        <v>0.73940043488661655</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+      <c r="A50" s="68" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3226,15 +3262,15 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>130658.78524545796</v>
+        <v>66559.49219672475</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64617761626229508</v>
+        <v>0.30052338354842123</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="8" t="s">
         <v>159</v>
       </c>
@@ -3243,15 +3279,15 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>197401.3133322236</v>
+        <v>22200.265440081792</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97625513551525112</v>
+        <v>0.10023662539382716</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
@@ -3260,15 +3296,15 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>132504.795772774</v>
+        <v>216638.7569683124</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65530712622900178</v>
+        <v>0.97814767064952213</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="68" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3279,15 +3315,15 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>36005.905120564064</v>
+        <v>129212.01960995539</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17806846970499635</v>
+        <v>0.58340639399018057</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
@@ -3296,31 +3332,31 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>147418.21114393303</v>
+        <v>72162.236811945579</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.72906194628768584</v>
+        <v>0.32582038797789181</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="33">
         <v>1800000</v>
       </c>
       <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3350,16 +3386,16 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>111933.60722876752</v>
+        <v>91338.910767482084</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.74995836991437281</v>
+        <v>0.52623791420605925</v>
       </c>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="69" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3370,15 +3406,15 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>2279.217022227218</v>
+        <v>72478.416765865899</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5270819238203837E-2</v>
+        <v>0.41757549486133594</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
@@ -3387,15 +3423,15 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>132749.98361623095</v>
+        <v>168352.74279657175</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88942868709230338</v>
+        <v>0.96994364697063606</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="71"/>
       <c r="B61" s="8" t="s">
         <v>170</v>
       </c>
@@ -3404,15 +3440,15 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>131494.14190688363</v>
+        <v>52999.673021279777</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88101451172057865</v>
+        <v>0.30535110556902767</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="68" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3423,15 +3459,15 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>67460.335529729855</v>
+        <v>114083.04261214465</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4519861775235483</v>
+        <v>0.65727543591278736</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="8" t="s">
         <v>173</v>
       </c>
@@ -3440,15 +3476,15 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>64378.777227309431</v>
+        <v>109312.75291816014</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4313396487597958</v>
+        <v>0.62979199782897377</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
@@ -3457,15 +3493,15 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>147382.9384597601</v>
+        <v>66844.499394172191</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98746990307004912</v>
+        <v>0.38511637200145532</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="68" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3476,15 +3512,15 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>130795.8499731085</v>
+        <v>126880.25708232867</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.8763359357920103</v>
+        <v>0.73100501505765669</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
+      <c r="A66" s="68"/>
       <c r="B66" s="8" t="s">
         <v>177</v>
       </c>
@@ -3493,15 +3529,15 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>44607.231956858945</v>
+        <v>13011.175938021295</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2988697299497064</v>
+        <v>7.4962291858531871E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3510,15 +3546,15 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>57465.438620760666</v>
+        <v>21957.655943392307</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.385020082363289</v>
+        <v>0.12650633741319772</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="68" t="s">
         <v>179</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3529,15 +3565,15 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>56401.820150487882</v>
+        <v>89493.100843089022</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37789380819125828</v>
+        <v>0.51560350706816216</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
@@ -3546,15 +3582,15 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>43040.870351596015</v>
+        <v>115861.66367400161</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28837506239397748</v>
+        <v>0.66752274267274259</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
@@ -3563,15 +3599,15 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>119827.92850668587</v>
+        <v>104277.12284908646</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80285054826674185</v>
+        <v>0.60077983376881217</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="68" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3582,15 +3618,15 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>149093.12144503216</v>
+        <v>126498.31659978478</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.99892817798536249</v>
+        <v>0.72880451188550477</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="8" t="s">
         <v>185</v>
       </c>
@@ -3599,20 +3635,20 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>141088.73800456125</v>
+        <v>126610.66879461912</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94529857999593603</v>
+        <v>0.72945181525456515</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="33">
         <v>1400000</v>
       </c>
     </row>
@@ -3623,18 +3659,18 @@
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="76"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="65" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3645,8 +3681,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
-      <c r="B77" s="45"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="9" t="s">
         <v>77</v>
       </c>
@@ -3655,8 +3691,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
-      <c r="B78" s="45"/>
+      <c r="A78" s="70"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
@@ -3665,8 +3701,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
-      <c r="B79" s="46" t="s">
+      <c r="A79" s="70"/>
+      <c r="B79" s="66" t="s">
         <v>188</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3677,8 +3713,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="70"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="9" t="s">
         <v>80</v>
       </c>
@@ -3687,8 +3723,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="66"/>
       <c r="C81" s="9" t="s">
         <v>81</v>
       </c>
@@ -3697,7 +3733,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="13" t="s">
         <v>189</v>
       </c>
@@ -3709,8 +3745,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="47" t="s">
+      <c r="A83" s="70"/>
+      <c r="B83" s="67" t="s">
         <v>190</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3721,8 +3757,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="47"/>
+      <c r="A84" s="70"/>
+      <c r="B84" s="67"/>
       <c r="C84" s="9" t="s">
         <v>84</v>
       </c>
@@ -3731,8 +3767,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="47"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="67"/>
       <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
@@ -3741,8 +3777,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
-      <c r="B86" s="45" t="s">
+      <c r="A86" s="70"/>
+      <c r="B86" s="65" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3753,8 +3789,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="45"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="9" t="s">
         <v>87</v>
       </c>
@@ -3763,8 +3799,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="70"/>
+      <c r="B88" s="65"/>
       <c r="C88" s="9" t="s">
         <v>88</v>
       </c>
@@ -3773,8 +3809,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
-      <c r="B89" s="46" t="s">
+      <c r="A89" s="70"/>
+      <c r="B89" s="66" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3785,8 +3821,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="39"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="70"/>
+      <c r="B90" s="66"/>
       <c r="C90" s="9" t="s">
         <v>90</v>
       </c>
@@ -3795,11 +3831,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="39"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="70"/>
+      <c r="B91" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="73" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="10">
@@ -3807,13 +3843,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="39"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="41"/>
+      <c r="A92" s="70"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="73"/>
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="39"/>
+      <c r="A93" s="70"/>
       <c r="B93" s="8" t="s">
         <v>194</v>
       </c>
@@ -3825,7 +3861,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="39"/>
+      <c r="A94" s="70"/>
       <c r="B94" s="13" t="s">
         <v>195</v>
       </c>
@@ -3837,7 +3873,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="71"/>
       <c r="B95" s="11"/>
       <c r="C95" s="14" t="s">
         <v>40</v>
@@ -3849,29 +3885,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A76:A95"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B83:B85"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
@@ -3883,6 +3896,29 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B83:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3896,15 +3932,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3912,13 +3949,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -3937,254 +3974,332 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="88">
+        <v>1</v>
+      </c>
+      <c r="E4" s="90">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="91">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83"/>
+      <c r="C5" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="88">
+        <v>1</v>
+      </c>
+      <c r="E5" s="90">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="91">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="84"/>
+      <c r="C6" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="90">
+        <f>SUM(E4,E5)</f>
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="90">
+        <f>SUM(E4,E5)</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3310000</v>
+      </c>
+      <c r="F7" s="30">
+        <v>3310000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="47">
+        <v>800000</v>
+      </c>
+      <c r="F8" s="47">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="83"/>
+      <c r="C9" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47">
+        <v>400000</v>
+      </c>
+      <c r="F9" s="47">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="84"/>
+      <c r="C10" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="29">
+        <f>SUM(D8:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="47">
+        <f>SUM(E8:E9)</f>
+        <v>1200000</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>3310000</v>
-      </c>
-      <c r="F4" s="31">
-        <v>3310000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>800000</v>
+      </c>
+      <c r="F11" s="30">
+        <f>D11*E11</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="83"/>
+      <c r="C12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="45">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="30">
+        <f>D12*E12</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="83"/>
+      <c r="C13" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1800000</v>
+      </c>
+      <c r="F13" s="30">
+        <f>D13*E13</f>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="83"/>
+      <c r="C14" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1400000</v>
+      </c>
+      <c r="F14" s="30">
+        <f>D14*E14</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="84"/>
+      <c r="C15" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="57">
+        <f>SUM(E11:E14)</f>
+        <v>6000000</v>
+      </c>
+      <c r="F15" s="48">
+        <f>SUM(F11:F14)</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="52">
         <v>1</v>
       </c>
-      <c r="E5" s="70">
-        <v>800000</v>
-      </c>
-      <c r="F5" s="70">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="E16" s="56">
+        <v>1200000</v>
+      </c>
+      <c r="F16" s="58">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="78"/>
+      <c r="C17" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="70">
-        <v>400000</v>
-      </c>
-      <c r="F6" s="70">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="30">
-        <f>SUM(D5:D6)</f>
-        <v>2</v>
-      </c>
-      <c r="E7" s="70">
-        <f>SUM(E5:E6)</f>
-        <v>1200000</v>
-      </c>
-      <c r="F7" s="70">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="67">
+      <c r="E17" s="58">
+        <v>2400000</v>
+      </c>
+      <c r="F17" s="58">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="78"/>
+      <c r="C18" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="31">
-        <v>800000</v>
-      </c>
-      <c r="F8" s="31">
-        <f>D8*E8</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="68">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="E18" s="58">
         <v>2000000</v>
       </c>
-      <c r="F9" s="31">
-        <f>D9*E9</f>
+      <c r="F18" s="58">
         <v>2000000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="65">
-        <v>1</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1800000</v>
-      </c>
-      <c r="F10" s="31">
-        <f>D10*E10</f>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="66">
-        <v>1</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1400000</v>
-      </c>
-      <c r="F11" s="31">
-        <f>D11*E11</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="51"/>
-      <c r="C12" s="69" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="30">
-        <v>4</v>
-      </c>
-      <c r="E12" s="81">
-        <f>SUM(E8:E11)</f>
-        <v>6000000</v>
-      </c>
-      <c r="F12" s="71">
-        <f>SUM(F8:F11)</f>
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="75">
-        <v>1</v>
-      </c>
-      <c r="E13" s="80">
-        <v>1200000</v>
-      </c>
-      <c r="F13" s="82">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
-      <c r="C14" s="77" t="s">
+    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="78"/>
+      <c r="C19" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="52">
+        <f>SUM(D16:D18)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="55">
+        <f>SUM(E16:E18)</f>
+        <v>5600000</v>
+      </c>
+      <c r="F19" s="55">
+        <f>SUM(F16:F18)</f>
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="51"/>
+      <c r="C20" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="93">
+        <f>SUM(E6,E7,E10,E15,E19)</f>
+        <v>20110000</v>
+      </c>
+      <c r="F20" s="55">
+        <f>SUM(E6,E7,E10,E15,E19)</f>
+        <v>20110000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="92"/>
+      <c r="C21" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="94">
+        <f>E20*10%</f>
+        <v>2011000</v>
+      </c>
+      <c r="F21" s="55">
+        <f>E20*10%</f>
+        <v>2011000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="75">
-        <v>1</v>
-      </c>
-      <c r="E14" s="82">
-        <v>2400000</v>
-      </c>
-      <c r="F14" s="82">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
-      <c r="C15" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="75">
-        <v>1</v>
-      </c>
-      <c r="E15" s="82">
-        <v>2000000</v>
-      </c>
-      <c r="F15" s="82">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="74"/>
-      <c r="C16" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="75">
-        <f>SUM(D13:D15)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="79">
-        <f>SUM(E13:E15)</f>
-        <v>5600000</v>
-      </c>
-      <c r="F16" s="75">
-        <f>SUM(F13:F15)</f>
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85">
-        <f>SUM(E7,E12,E16)</f>
-        <v>12800000</v>
-      </c>
-      <c r="F17" s="85">
-        <f>E17</f>
-        <v>12800000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="73"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="73"/>
-      <c r="C20" s="1"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="59">
+        <f>SUM(E20,E21)</f>
+        <v>22121000</v>
+      </c>
+      <c r="F22" s="59">
+        <f>E22</f>
+        <v>22121000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="50"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="50"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="50"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="6">
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>

--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\Proyecto EAP\ProyectoEAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\ProyectoEAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="PF" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="PRESUPUESTO" sheetId="3" r:id="rId3"/>
+    <sheet name="Estimación de recursos" sheetId="3" r:id="rId3"/>
+    <sheet name="Presupuesto" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="232">
   <si>
     <t>Funcionalidades</t>
   </si>
@@ -707,6 +708,21 @@
   </si>
   <si>
     <t>Sub-Total</t>
+  </si>
+  <si>
+    <t>Costos Directos</t>
+  </si>
+  <si>
+    <t>Costos Indirectos</t>
+  </si>
+  <si>
+    <t>Total costos directos</t>
+  </si>
+  <si>
+    <t>Total costos indirectos</t>
+  </si>
+  <si>
+    <t>Estimación de Recursos Campus Virtual</t>
   </si>
 </sst>
 </file>
@@ -714,10 +730,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-240A]General"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-240A]General"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -897,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1090,6 +1106,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1102,12 +1149,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1117,7 +1164,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="9" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,28 +1203,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,28 +1234,28 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,108 +1268,124 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
@@ -2165,11 +2228,11 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -2179,11 +2242,11 @@
       <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="76">
         <f>(H25*0.01)+0.65</f>
         <v>1.04</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -2199,11 +2262,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -2213,11 +2276,11 @@
       <c r="B34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="75">
         <f>D28*C31</f>
         <v>153.92000000000002</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -2233,11 +2296,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -2247,10 +2310,10 @@
       <c r="B37" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="76">
         <v>8</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -2260,11 +2323,11 @@
       <c r="B38" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="75">
         <f>C34*C37</f>
         <v>1231.3600000000001</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -2280,11 +2343,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -2294,11 +2357,11 @@
       <c r="B41" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="75">
         <f>(C34/150) * C34^0.4</f>
         <v>7.6934620793920665</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="75"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -2422,7 +2485,7 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,12 +2504,12 @@
       <c r="D1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,17 +2539,17 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>22678.086287695787</v>
+        <v>9475.0614917659295</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.19027019722502014</v>
+        <v>9.7382509850757137E-2</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="80" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2497,15 +2560,15 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>75293.16449414927</v>
+        <v>18354.448990039506</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63171314705555193</v>
+        <v>0.18864281895489965</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2514,15 +2577,15 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2328.4232671803006</v>
+        <v>52539.764022625146</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9535579353981536E-2</v>
+        <v>0.53999164986275583</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
@@ -2531,15 +2594,15 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>76769.30941576905</v>
+        <v>62143.979311422525</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64409807150668141</v>
+        <v>0.63870157283084295</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="78" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2550,15 +2613,15 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48909.352684425481</v>
+        <v>12098.781167734163</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41035174059033186</v>
+        <v>0.12434849919158009</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2567,15 +2630,15 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>97045.773478279531</v>
+        <v>70570.608253178827</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81421854672037264</v>
+        <v>0.72530853328617995</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2584,15 +2647,15 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21077.597478801516</v>
+        <v>79849.49954424132</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1768420217845742</v>
+        <v>0.82067485078620372</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="78" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2603,15 +2666,15 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>44941.963594161396</v>
+        <v>28842.892714956968</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37706516185981065</v>
+        <v>0.29644063907970852</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="8" t="s">
         <v>113</v>
       </c>
@@ -2620,15 +2683,15 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>63162.874790584712</v>
+        <v>54416.14535221694</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52993945305800749</v>
+        <v>0.55927666700713474</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2637,15 +2700,15 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>58237.161145198814</v>
+        <v>90329.134265637549</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48861248680115699</v>
+        <v>0.92838213399228886</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="78" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2656,15 +2719,15 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>84930.202071800784</v>
+        <v>16308.445473269978</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7125683399189614</v>
+        <v>0.1676144638566619</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -2673,15 +2736,15 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>98827.682103512721</v>
+        <v>79822.730524120838</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8291688428458458</v>
+        <v>0.82039972493421398</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2690,15 +2753,15 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51417.606646124703</v>
+        <v>67567.323764562083</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43139610782346494</v>
+        <v>0.69444146381633975</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="78" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2709,15 +2772,15 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39464.720012249141</v>
+        <v>68487.474541749354</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33111083381999928</v>
+        <v>0.70389856255933914</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2726,11 +2789,11 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>14916.082530066749</v>
+        <v>89193.710582478947</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12514662519651443</v>
+        <v>0.91671250967311546</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2745,12 +2808,12 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,16 +2843,16 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>250530.03770059085</v>
+        <v>124736.45397866576</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>0.79645188982537407</v>
+        <v>0.34099092101673623</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="80" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2800,15 +2863,15 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>170365.82057178911</v>
+        <v>95689.651599256002</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54160443594477625</v>
+        <v>0.26158593891230586</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2817,15 +2880,15 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>50262.01835694359</v>
+        <v>293870.87807559484</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15978634687576609</v>
+        <v>0.80335217315166751</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2834,15 +2897,15 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>3208.3411857842179</v>
+        <v>108353.62487405658</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.019953305430088E-2</v>
+        <v>0.29620532861729265</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="78" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2853,15 +2916,15 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>59640.097120935628</v>
+        <v>162554.4417735567</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18959989188244952</v>
+        <v>0.44437361370884321</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="8" t="s">
         <v>130</v>
       </c>
@@ -2870,15 +2933,15 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>187799.35950643409</v>
+        <v>87417.285395843792</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59702683223019171</v>
+        <v>0.23897184591290321</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="8" t="s">
         <v>131</v>
       </c>
@@ -2887,15 +2950,15 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>251838.20036962145</v>
+        <v>72713.720493947418</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80061062719479725</v>
+        <v>0.19877684294300535</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="78" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2906,15 +2969,15 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>240614.80146963804</v>
+        <v>215741.78126566915</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7649306849962545</v>
+        <v>0.58977136473796266</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="8" t="s">
         <v>134</v>
       </c>
@@ -2923,15 +2986,15 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>102828.72875842189</v>
+        <v>250771.23831926289</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32689946522844737</v>
+        <v>0.68553107605270069</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
@@ -2940,15 +3003,15 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>119695.77860748688</v>
+        <v>5162.4498826870922</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38052095449721668</v>
+        <v>1.4112542757559021E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="78" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2959,15 +3022,15 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>6885.8513761184386</v>
+        <v>229057.52579238603</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1890586022744407E-2</v>
+        <v>0.62617249564525412</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="8" t="s">
         <v>138</v>
       </c>
@@ -2976,15 +3039,15 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>199066.82426514753</v>
+        <v>34628.093978494253</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63284686276618263</v>
+        <v>9.4662508690526059E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
@@ -2993,15 +3056,15 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>166133.85946585162</v>
+        <v>171956.38445723511</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52815074611409996</v>
+        <v>0.47007561976075807</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="78" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3012,15 +3075,15 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>119011.12540983927</v>
+        <v>55159.468552627986</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37834439579732493</v>
+        <v>0.15078894248325581</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+      <c r="A36" s="78"/>
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3029,11 +3092,11 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>72119.155835397556</v>
+        <v>92187.00156071673</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22927166133411547</v>
+        <v>0.25201077604255573</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3048,12 +3111,12 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,16 +3146,16 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>142651.79152136287</v>
+        <v>30809.261176363427</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.64408843340534838</v>
+        <v>0.14443144929653307</v>
       </c>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="80" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3103,15 +3166,15 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>180377.7433723475</v>
+        <v>44860.917087132424</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81442523021162894</v>
+        <v>0.21030453260713111</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
@@ -3120,15 +3183,15 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>81037.437400560462</v>
+        <v>147589.91532408862</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36589288887195259</v>
+        <v>0.69189018359728249</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+      <c r="A43" s="82"/>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
@@ -3137,15 +3200,15 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>41016.72131758873</v>
+        <v>91143.260133621166</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18519498069474427</v>
+        <v>0.42727260090251984</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="78" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3156,15 +3219,15 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>179826.11792925181</v>
+        <v>157231.38843457302</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81193458103238736</v>
+        <v>0.73708866877774337</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3173,15 +3236,15 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>69023.284103679442</v>
+        <v>170262.28605179841</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31164767334992416</v>
+        <v>0.79817651563382153</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
+      <c r="A46" s="78"/>
       <c r="B46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3190,15 +3253,15 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>165984.36321759594</v>
+        <v>12844.784003442579</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74943754532935936</v>
+        <v>6.0215360533910522E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="78" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3209,15 +3272,15 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>138972.87220644392</v>
+        <v>194413.99436868695</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62747771051922197</v>
+        <v>0.91139786862983263</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
+      <c r="A48" s="78"/>
       <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
@@ -3226,15 +3289,15 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>130575.53965309974</v>
+        <v>88359.317620001137</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58956283604491722</v>
+        <v>0.41422169229102568</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="8" t="s">
         <v>156</v>
       </c>
@@ -3243,15 +3306,15 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>163761.35825104977</v>
+        <v>205492.42240123663</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73940043488661655</v>
+        <v>0.96333268808262917</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="78" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3262,15 +3325,15 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>66559.49219672475</v>
+        <v>74838.463983331807</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30052338354842123</v>
+        <v>0.35083696925947672</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+      <c r="A51" s="78"/>
       <c r="B51" s="8" t="s">
         <v>159</v>
       </c>
@@ -3279,15 +3342,15 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>22200.265440081792</v>
+        <v>132207.98438534146</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10023662539382716</v>
+        <v>0.6197808731615343</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+      <c r="A52" s="78"/>
       <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
@@ -3296,15 +3359,15 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>216638.7569683124</v>
+        <v>200658.09140103948</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97814767064952213</v>
+        <v>0.94066971577892111</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="78" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3315,15 +3378,15 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>129212.01960995539</v>
+        <v>49797.723326832645</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58340639399018057</v>
+        <v>0.23344790096038137</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
@@ -3332,11 +3395,11 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>72162.236811945579</v>
+        <v>199490.19030251022</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32582038797789181</v>
+        <v>0.93519468515971871</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3351,12 +3414,12 @@
       <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3386,16 +3449,16 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>91338.910767482084</v>
+        <v>136305.42883409304</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.52623791420605925</v>
+        <v>0.83387038422256643</v>
       </c>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="80" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3406,15 +3469,15 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>72478.416765865899</v>
+        <v>53299.21759752748</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41757549486133594</v>
+        <v>0.32606653628527971</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
@@ -3423,15 +3486,15 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>168352.74279657175</v>
+        <v>155931.04067110174</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96994364697063606</v>
+        <v>0.95393322121381097</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="8" t="s">
         <v>170</v>
       </c>
@@ -3440,15 +3503,15 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>52999.673021279777</v>
+        <v>151742.19377775345</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30535110556902767</v>
+        <v>0.92830727661069934</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="78" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3459,15 +3522,15 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>114083.04261214465</v>
+        <v>136667.60489876717</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65727543591278736</v>
+        <v>0.83608605455051521</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+      <c r="A63" s="78"/>
       <c r="B63" s="8" t="s">
         <v>173</v>
       </c>
@@ -3476,15 +3539,15 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>109312.75291816014</v>
+        <v>33511.42386171766</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62979199782897377</v>
+        <v>0.20501152544282464</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
@@ -3493,15 +3556,15 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>66844.499394172191</v>
+        <v>420.56870459063242</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38511637200145532</v>
+        <v>2.5728966944951193E-3</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="78" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3512,15 +3575,15 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126880.25708232867</v>
+        <v>70663.864398037767</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73100501505765669</v>
+        <v>0.43229755601271214</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="8" t="s">
         <v>177</v>
       </c>
@@ -3529,15 +3592,15 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>13011.175938021295</v>
+        <v>120417.5474118331</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4962291858531871E-2</v>
+        <v>0.73667371421914285</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3546,15 +3609,15 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>21957.655943392307</v>
+        <v>118943.70072146576</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12650633741319772</v>
+        <v>0.72765722003769939</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="78" t="s">
         <v>179</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3565,15 +3628,15 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>89493.100843089022</v>
+        <v>131484.40122015803</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51560350706816216</v>
+        <v>0.80437697238148154</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
@@ -3582,15 +3645,15 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>115861.66367400161</v>
+        <v>12931.29002520758</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66752274267274259</v>
+        <v>7.9109246594558313E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
@@ -3599,15 +3662,15 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>104277.12284908646</v>
+        <v>119178.68118799693</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60077983376881217</v>
+        <v>0.72909475083590136</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="78" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3618,15 +3681,15 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126498.31659978478</v>
+        <v>896.3098531198516</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72880451188550477</v>
+        <v>5.4833196887061897E-3</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
+      <c r="A72" s="78"/>
       <c r="B72" s="8" t="s">
         <v>185</v>
       </c>
@@ -3635,11 +3698,11 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126610.66879461912</v>
+        <v>157606.72683662976</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72945181525456515</v>
+        <v>0.96418450084835916</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3659,18 +3722,18 @@
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="89"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="83" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3681,8 +3744,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="65"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="9" t="s">
         <v>77</v>
       </c>
@@ -3691,8 +3754,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
-      <c r="B78" s="65"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
@@ -3701,8 +3764,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
-      <c r="B79" s="66" t="s">
+      <c r="A79" s="81"/>
+      <c r="B79" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3713,8 +3776,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="66"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="84"/>
       <c r="C80" s="9" t="s">
         <v>80</v>
       </c>
@@ -3723,8 +3786,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
-      <c r="B81" s="66"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="84"/>
       <c r="C81" s="9" t="s">
         <v>81</v>
       </c>
@@ -3733,7 +3796,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+      <c r="A82" s="81"/>
       <c r="B82" s="13" t="s">
         <v>189</v>
       </c>
@@ -3745,8 +3808,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
-      <c r="B83" s="67" t="s">
+      <c r="A83" s="81"/>
+      <c r="B83" s="85" t="s">
         <v>190</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3757,8 +3820,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="67"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="9" t="s">
         <v>84</v>
       </c>
@@ -3767,8 +3830,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="67"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
@@ -3777,8 +3840,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="65" t="s">
+      <c r="A86" s="81"/>
+      <c r="B86" s="83" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3789,8 +3852,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="65"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="83"/>
       <c r="C87" s="9" t="s">
         <v>87</v>
       </c>
@@ -3799,8 +3862,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
-      <c r="B88" s="65"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="83"/>
       <c r="C88" s="9" t="s">
         <v>88</v>
       </c>
@@ -3809,8 +3872,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-      <c r="B89" s="66" t="s">
+      <c r="A89" s="81"/>
+      <c r="B89" s="84" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3821,8 +3884,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
-      <c r="B90" s="66"/>
+      <c r="A90" s="81"/>
+      <c r="B90" s="84"/>
       <c r="C90" s="9" t="s">
         <v>90</v>
       </c>
@@ -3831,11 +3894,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
-      <c r="B91" s="67" t="s">
+      <c r="A91" s="81"/>
+      <c r="B91" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="86" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="10">
@@ -3843,13 +3906,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="73"/>
+      <c r="A92" s="81"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="86"/>
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+      <c r="A93" s="81"/>
       <c r="B93" s="8" t="s">
         <v>194</v>
       </c>
@@ -3861,7 +3924,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="13" t="s">
         <v>195</v>
       </c>
@@ -3873,7 +3936,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
+      <c r="A95" s="82"/>
       <c r="B95" s="11"/>
       <c r="C95" s="14" t="s">
         <v>40</v>
@@ -3885,6 +3948,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B86:B88"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
@@ -3900,25 +3981,7 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A76:A95"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B83:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3932,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3946,16 +4009,17 @@
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -3975,333 +4039,760 @@
       </c>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" s="88">
+      <c r="B4" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="29">
         <v>1</v>
       </c>
-      <c r="E4" s="90">
-        <v>3000000</v>
-      </c>
-      <c r="F4" s="91">
-        <v>3000000</v>
+      <c r="E4" s="47">
+        <v>800000</v>
+      </c>
+      <c r="F4" s="47">
+        <v>800000</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="88">
+      <c r="B5" s="96"/>
+      <c r="C5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="90">
-        <v>1000000</v>
-      </c>
-      <c r="F5" s="91">
-        <v>1000000</v>
+      <c r="E5" s="47">
+        <v>400000</v>
+      </c>
+      <c r="F5" s="47">
+        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90">
-        <f>SUM(E4,E5)</f>
-        <v>4000000</v>
-      </c>
-      <c r="F6" s="90">
-        <f>SUM(E4,E5)</f>
-        <v>4000000</v>
+      <c r="D6" s="29">
+        <f>SUM(D4:D5)</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="47">
+        <f>SUM(E4:E5)</f>
+        <v>1200000</v>
+      </c>
+      <c r="F6" s="47">
+        <v>1200000</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
-        <v>220</v>
+      <c r="B7" s="95" t="s">
+        <v>210</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1</v>
       </c>
       <c r="E7" s="30">
-        <v>3310000</v>
+        <v>800000</v>
       </c>
       <c r="F7" s="30">
-        <v>3310000</v>
+        <f>D7*E7</f>
+        <v>800000</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
-        <v>211</v>
-      </c>
+      <c r="B8" s="96"/>
       <c r="C8" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="D8" s="45">
         <v>1</v>
       </c>
-      <c r="E8" s="47">
-        <v>800000</v>
-      </c>
-      <c r="F8" s="47">
-        <v>800000</v>
+      <c r="E8" s="30">
+        <v>2000000</v>
+      </c>
+      <c r="F8" s="30">
+        <f>D8*E8</f>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="29">
+        <v>201</v>
+      </c>
+      <c r="D9" s="42">
         <v>1</v>
       </c>
-      <c r="E9" s="47">
-        <v>400000</v>
-      </c>
-      <c r="F9" s="47">
-        <v>400000</v>
+      <c r="E9" s="30">
+        <v>1800000</v>
+      </c>
+      <c r="F9" s="30">
+        <f>D9*E9</f>
+        <v>1800000</v>
       </c>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1400000</v>
+      </c>
+      <c r="F10" s="30">
+        <f>D10*E10</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="97"/>
+      <c r="C11" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="29">
-        <f>SUM(D8:D9)</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="47">
-        <f>SUM(E8:E9)</f>
+      <c r="D11" s="29">
+        <v>4</v>
+      </c>
+      <c r="E11" s="57">
+        <f>SUM(E7:E10)</f>
+        <v>6000000</v>
+      </c>
+      <c r="F11" s="48">
+        <f>SUM(F7:F10)</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="52">
+        <v>1</v>
+      </c>
+      <c r="E12" s="56">
         <v>1200000</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F12" s="71">
         <v>1200000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="44">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="91"/>
+      <c r="C13" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="52">
         <v>1</v>
       </c>
-      <c r="E11" s="30">
-        <v>800000</v>
-      </c>
-      <c r="F11" s="30">
-        <f>D11*E11</f>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
-      <c r="C12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="45">
+      <c r="E13" s="58">
+        <v>2400000</v>
+      </c>
+      <c r="F13" s="71">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="91"/>
+      <c r="C14" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="52">
         <v>1</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E14" s="58">
         <v>2000000</v>
       </c>
-      <c r="F12" s="30">
-        <f>D12*E12</f>
+      <c r="F14" s="71">
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
-      <c r="C13" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="42">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1800000</v>
-      </c>
-      <c r="F13" s="30">
-        <f>D13*E13</f>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
-      <c r="C14" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="43">
-        <v>1</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1400000</v>
-      </c>
-      <c r="F14" s="30">
-        <f>D14*E14</f>
-        <v>1400000</v>
-      </c>
-    </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="29">
-        <v>4</v>
-      </c>
-      <c r="E15" s="57">
-        <f>SUM(E11:E14)</f>
-        <v>6000000</v>
-      </c>
-      <c r="F15" s="48">
-        <f>SUM(F11:F14)</f>
-        <v>6000000</v>
+      <c r="D15" s="52">
+        <f>SUM(D12:D14)</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="55">
+        <f>SUM(E12:E14)</f>
+        <v>5600000</v>
+      </c>
+      <c r="F15" s="55">
+        <f>SUM(F12:F14)</f>
+        <v>5600000</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="52">
-        <v>1</v>
-      </c>
-      <c r="E16" s="56">
-        <v>1200000</v>
-      </c>
-      <c r="F16" s="58">
-        <v>1200000</v>
+      <c r="B16" s="51"/>
+      <c r="C16" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="67">
+        <f>SUM(E6,E11,E15)</f>
+        <v>12800000</v>
+      </c>
+      <c r="F16" s="55">
+        <f>SUM(E6,E11,E15)</f>
+        <v>12800000</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
-      <c r="C17" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="52">
-        <v>1</v>
-      </c>
-      <c r="E17" s="58">
-        <v>2400000</v>
-      </c>
-      <c r="F17" s="58">
-        <v>2400000</v>
+      <c r="B17" s="66"/>
+      <c r="C17" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="52"/>
+      <c r="E17" s="68">
+        <f>E16*10%</f>
+        <v>1280000</v>
+      </c>
+      <c r="F17" s="55">
+        <f>E16*10%</f>
+        <v>1280000</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
-      <c r="C18" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="52">
-        <v>1</v>
-      </c>
-      <c r="E18" s="58">
-        <v>2000000</v>
-      </c>
-      <c r="F18" s="58">
-        <v>2000000</v>
+      <c r="B18" s="49"/>
+      <c r="C18" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="59">
+        <f>SUM(E16,E17)</f>
+        <v>14080000</v>
+      </c>
+      <c r="F18" s="59">
+        <f>E18</f>
+        <v>14080000</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
-      <c r="C19" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="52">
-        <f>SUM(D16:D18)</f>
-        <v>3</v>
-      </c>
-      <c r="E19" s="55">
-        <f>SUM(E16:E18)</f>
-        <v>5600000</v>
-      </c>
-      <c r="F19" s="55">
-        <f>SUM(F16:F18)</f>
-        <v>5600000</v>
-      </c>
+      <c r="B19" s="50"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="93">
-        <f>SUM(E6,E7,E10,E15,E19)</f>
-        <v>20110000</v>
-      </c>
-      <c r="F20" s="55">
-        <f>SUM(E6,E7,E10,E15,E19)</f>
-        <v>20110000</v>
-      </c>
+      <c r="B20" s="50"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
-      <c r="C21" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="94">
-        <f>E20*10%</f>
-        <v>2011000</v>
-      </c>
-      <c r="F21" s="55">
-        <f>E20*10%</f>
-        <v>2011000</v>
-      </c>
+      <c r="B21" s="50"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="59">
-        <f>SUM(E20,E21)</f>
-        <v>22121000</v>
-      </c>
-      <c r="F22" s="59">
-        <f>E22</f>
-        <v>22121000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="1"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C22:D22"/>
+  <mergeCells count="5">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B7:B11"/>
     <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="64">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="65">
+        <v>3000000</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="91"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1</v>
+      </c>
+      <c r="E5" s="64">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="65">
+        <v>1000000</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="91"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="64">
+        <f>SUM(E4,E5)</f>
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="64">
+        <f>SUM(E4,E5)</f>
+        <v>4000000</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="91"/>
+      <c r="B7" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30">
+        <v>3310000</v>
+      </c>
+      <c r="F7" s="30">
+        <v>3310000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1</v>
+      </c>
+      <c r="E8" s="47">
+        <v>800000</v>
+      </c>
+      <c r="F8" s="47">
+        <v>800000</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="99"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47">
+        <v>400000</v>
+      </c>
+      <c r="F9" s="47">
+        <v>400000</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="99"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="29">
+        <f>SUM(D8:D9)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="47">
+        <f>SUM(E8:E9)</f>
+        <v>1200000</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1200000</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="99"/>
+      <c r="B11" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>800000</v>
+      </c>
+      <c r="F11" s="30">
+        <f>D11*E11</f>
+        <v>800000</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="45">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2000000</v>
+      </c>
+      <c r="F12" s="30">
+        <f>D12*E12</f>
+        <v>2000000</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="99"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="42">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1800000</v>
+      </c>
+      <c r="F13" s="30">
+        <f>D13*E13</f>
+        <v>1800000</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="99"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="43">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1400000</v>
+      </c>
+      <c r="F14" s="30">
+        <f>D14*E14</f>
+        <v>1400000</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="99"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="57">
+        <f>SUM(E11:E14)</f>
+        <v>6000000</v>
+      </c>
+      <c r="F15" s="48">
+        <f>SUM(F11:F14)</f>
+        <v>6000000</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="99"/>
+      <c r="B16" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="52">
+        <v>1</v>
+      </c>
+      <c r="E16" s="56">
+        <v>1200000</v>
+      </c>
+      <c r="F16" s="58">
+        <v>1200000</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="99"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="52">
+        <v>1</v>
+      </c>
+      <c r="E17" s="58">
+        <v>2400000</v>
+      </c>
+      <c r="F17" s="58">
+        <v>2400000</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1</v>
+      </c>
+      <c r="E18" s="58">
+        <v>2000000</v>
+      </c>
+      <c r="F18" s="58">
+        <v>2000000</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="100"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="52">
+        <f>SUM(D16:D18)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="55">
+        <f>SUM(E16:E18)</f>
+        <v>5600000</v>
+      </c>
+      <c r="F19" s="55">
+        <f>SUM(F16:F18)</f>
+        <v>5600000</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="55">
+        <f>SUM(E6,E7)</f>
+        <v>7310000</v>
+      </c>
+      <c r="F20" s="55">
+        <f>SUM(E6,E7)</f>
+        <v>7310000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="52"/>
+      <c r="E21" s="55">
+        <f>SUM(E10,E15,E19)</f>
+        <v>12800000</v>
+      </c>
+      <c r="F21" s="55">
+        <f>SUM(E10,E15,E19)</f>
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="67">
+        <f>SUM(E6,E7,E10,E15,E19)</f>
+        <v>20110000</v>
+      </c>
+      <c r="F22" s="55">
+        <f>SUM(E6,E7,E10,E15,E19)</f>
+        <v>20110000</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="68">
+        <f>E22*10%</f>
+        <v>2011000</v>
+      </c>
+      <c r="F23" s="55">
+        <f>E22*10%</f>
+        <v>2011000</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="59">
+        <f>SUM(E22,E23)</f>
+        <v>22121000</v>
+      </c>
+      <c r="F24" s="59">
+        <f>E24</f>
+        <v>22121000</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A19"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\Proyecto EAP\ProyectoEAP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="PF" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="PRESUPUESTO" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -714,12 +709,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-240A]General"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-240A]General"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,9 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
@@ -1117,7 +1112,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="9" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1139,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1156,28 +1151,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,28 +1182,28 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,108 +1216,108 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
@@ -1644,7 +1639,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1654,18 +1649,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I49"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -1674,7 +1669,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="35"/>
       <c r="B5" s="34" t="s">
         <v>0</v>
@@ -1696,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
         <v>41</v>
@@ -1718,7 +1713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="35"/>
       <c r="B7" s="36" t="s">
         <v>42</v>
@@ -1740,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="35"/>
       <c r="B8" s="36" t="s">
         <v>43</v>
@@ -1762,7 +1757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="35"/>
       <c r="B9" s="36" t="s">
         <v>44</v>
@@ -1784,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="35"/>
       <c r="B10" s="36" t="s">
         <v>45</v>
@@ -1806,7 +1801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="35"/>
       <c r="B11" s="36" t="s">
         <v>46</v>
@@ -1828,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="35"/>
       <c r="B12" s="36" t="s">
         <v>205</v>
@@ -1850,7 +1845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="1" customFormat="1">
       <c r="A13" s="35"/>
       <c r="B13" s="36" t="s">
         <v>206</v>
@@ -1866,7 +1861,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1">
       <c r="A14" s="35"/>
       <c r="B14" s="36" t="s">
         <v>207</v>
@@ -1882,7 +1877,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
         <v>209</v>
@@ -1898,7 +1893,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1">
       <c r="A16" s="35"/>
       <c r="B16" s="36" t="s">
         <v>208</v>
@@ -1914,7 +1909,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="35"/>
       <c r="B17" s="36" t="s">
         <v>47</v>
@@ -1937,7 +1932,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="35"/>
       <c r="B18" s="36" t="s">
         <v>48</v>
@@ -1959,7 +1954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1">
       <c r="A19" s="35"/>
       <c r="B19" s="36" t="s">
         <v>49</v>
@@ -1975,7 +1970,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="35"/>
       <c r="B20" s="36" t="s">
         <v>50</v>
@@ -1997,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>51</v>
@@ -2019,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="35"/>
       <c r="B22" s="36" t="s">
         <v>52</v>
@@ -2041,7 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
         <v>53</v>
@@ -2063,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
         <v>54</v>
@@ -2085,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="35"/>
       <c r="B25" s="36" t="s">
         <v>55</v>
@@ -2106,7 +2101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1">
       <c r="A26" s="35"/>
       <c r="B26" s="36" t="s">
         <v>56</v>
@@ -2122,7 +2117,7 @@
       <c r="G26" s="35"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1">
       <c r="A27" s="35"/>
       <c r="B27" s="36" t="s">
         <v>203</v>
@@ -2138,7 +2133,7 @@
       <c r="G27" s="35"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="35"/>
       <c r="B28" s="34" t="s">
         <v>40</v>
@@ -2154,7 +2149,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -2163,32 +2158,32 @@
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="35"/>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="35"/>
       <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="73">
         <f>(H25*0.01)+0.65</f>
         <v>1.04</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -2197,32 +2192,32 @@
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="35"/>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75">
       <c r="A34" s="35"/>
       <c r="B34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="63">
+      <c r="C34" s="72">
         <f>D28*C31</f>
         <v>153.92000000000002</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -2231,45 +2226,45 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="35"/>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="35"/>
       <c r="B37" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="73">
         <v>8</v>
       </c>
-      <c r="D37" s="64"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75">
       <c r="A38" s="35"/>
       <c r="B38" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="63">
+      <c r="C38" s="72">
         <f>C34*C37</f>
         <v>1231.3600000000001</v>
       </c>
-      <c r="D38" s="63"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -2278,32 +2273,32 @@
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="35"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="61"/>
-      <c r="D40" s="62"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="72">
         <f>(C34/150) * C34^0.4</f>
         <v>7.6934620793920665</v>
       </c>
-      <c r="D41" s="63"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -2312,7 +2307,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="35"/>
       <c r="B43" s="39" t="s">
         <v>33</v>
@@ -2328,7 +2323,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="35"/>
       <c r="B44" s="40" t="s">
         <v>34</v>
@@ -2344,7 +2339,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="35"/>
       <c r="B45" s="41" t="s">
         <v>35</v>
@@ -2360,7 +2355,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="35"/>
       <c r="B46" s="41" t="s">
         <v>204</v>
@@ -2376,7 +2371,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="35"/>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
@@ -2385,7 +2380,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
@@ -2394,7 +2389,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
@@ -2421,11 +2416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
@@ -2434,22 +2429,22 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -2464,7 +2459,7 @@
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A4" s="15" t="s">
         <v>95</v>
       </c>
@@ -2476,17 +2471,17 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>22678.086287695787</v>
+        <v>81693.68946854661</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.19027019722502014</v>
+        <v>0.7004093411657365</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:8" ht="60">
+      <c r="A5" s="77" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2497,15 +2492,15 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>75293.16449414927</v>
+        <v>112227.63576322276</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63171314705555193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+        <v>0.96219530464187708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="78"/>
       <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2514,15 +2509,15 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2328.4232671803006</v>
+        <v>36854.426118600553</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9535579353981536E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+        <v>0.3159752544498412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="79"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
@@ -2531,15 +2526,15 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>76769.30941576905</v>
+        <v>62764.882287186687</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64409807150668141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+        <v>0.5381212445795972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="75" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2550,15 +2545,15 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48909.352684425481</v>
+        <v>47175.973025909603</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41035174059033186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
+        <v>0.40446811009376438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" s="75"/>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2567,15 +2562,15 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>97045.773478279531</v>
+        <v>10190.72747897648</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81421854672037264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
+        <v>8.7371261672513967E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75">
+      <c r="A10" s="75"/>
       <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2584,15 +2579,15 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21077.597478801516</v>
+        <v>18361.660312349999</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1768420217845742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+        <v>0.15742560393276994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" s="75" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2603,15 +2598,15 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>44941.963594161396</v>
+        <v>30884.686167487984</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37706516185981065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+        <v>0.26479306824561322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="75"/>
       <c r="B12" s="8" t="s">
         <v>113</v>
       </c>
@@ -2620,15 +2615,15 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>63162.874790584712</v>
+        <v>87437.628026358172</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52993945305800749</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+        <v>0.74965559564567696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45">
+      <c r="A13" s="75"/>
       <c r="B13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2637,15 +2632,15 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>58237.161145198814</v>
+        <v>16661.967212125022</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48861248680115699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+        <v>0.14285310840395826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75">
+      <c r="A14" s="75" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2656,15 +2651,15 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>84930.202071800784</v>
+        <v>48433.279259244933</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7125683399189614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+        <v>0.41524775581992568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="75"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -2673,15 +2668,15 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>98827.682103512721</v>
+        <v>50784.583753323117</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8291688428458458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
+        <v>0.43540690938846927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60">
+      <c r="A16" s="75"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2690,15 +2685,15 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51417.606646124703</v>
+        <v>67770.16728707857</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43139610782346494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+        <v>0.58103457597554053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60">
+      <c r="A17" s="75" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2709,15 +2704,15 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39464.720012249141</v>
+        <v>17291.029723457519</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33111083381999928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+        <v>0.14824644125476671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75">
+      <c r="A18" s="75"/>
       <c r="B18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2726,14 +2721,14 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>14916.082530066749</v>
+        <v>111467.664116132</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12514662519651443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95567960870371749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="32" t="s">
@@ -2744,16 +2739,16 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2768,7 +2763,7 @@
       </c>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45">
       <c r="A22" s="15" t="s">
         <v>122</v>
       </c>
@@ -2780,16 +2775,16 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>250530.03770059085</v>
+        <v>154363.86511715647</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>0.79645188982537407</v>
+        <v>0.54315159321477313</v>
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+    <row r="23" spans="1:7" ht="60">
+      <c r="A23" s="77" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2800,15 +2795,15 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>170365.82057178911</v>
+        <v>37853.013770482539</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54160443594477625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
+        <v>0.13319130563240378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="78"/>
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2817,15 +2812,15 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>50262.01835694359</v>
+        <v>100967.0229478143</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15978634687576609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
+        <v>0.35526707843598027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="79"/>
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2834,15 +2829,15 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>3208.3411857842179</v>
+        <v>219230.69178754685</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>1.019953305430088E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+        <v>0.77139490797026267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="75" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2853,15 +2848,15 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>59640.097120935628</v>
+        <v>259046.94146633163</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18959989188244952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
+        <v>0.91149414319254485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="75"/>
       <c r="B27" s="8" t="s">
         <v>130</v>
       </c>
@@ -2870,15 +2865,15 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>187799.35950643409</v>
+        <v>29084.576042101267</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59702683223019171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
+        <v>0.10233828884275431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75">
+      <c r="A28" s="75"/>
       <c r="B28" s="8" t="s">
         <v>131</v>
       </c>
@@ -2887,15 +2882,15 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>251838.20036962145</v>
+        <v>253612.80869016345</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80061062719479725</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+        <v>0.89237336079391671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="75" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2906,15 +2901,15 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>240614.80146963804</v>
+        <v>164427.88935431276</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7649306849962545</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
+        <v>0.57856331858466348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="75"/>
       <c r="B30" s="8" t="s">
         <v>134</v>
       </c>
@@ -2923,15 +2918,15 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>102828.72875842189</v>
+        <v>36397.699321220774</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32689946522844737</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
+        <v>0.12807057118367071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="75"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
@@ -2940,15 +2935,15 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>119695.77860748688</v>
+        <v>167305.77875428062</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38052095449721668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+        <v>0.58868958881961841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75">
+      <c r="A32" s="75" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2959,15 +2954,15 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>6885.8513761184386</v>
+        <v>17170.388460500966</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1890586022744407E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
+        <v>6.0416496058578684E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="75"/>
       <c r="B33" s="8" t="s">
         <v>138</v>
       </c>
@@ -2976,15 +2971,15 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>199066.82426514753</v>
+        <v>28261.722435358253</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63284686276618263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+        <v>9.9442959374644757E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60">
+      <c r="A34" s="75"/>
       <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
@@ -2993,15 +2988,15 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>166133.85946585162</v>
+        <v>224544.38312539176</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52815074611409996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+        <v>0.79009189974234317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60">
+      <c r="A35" s="75" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3012,15 +3007,15 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>119011.12540983927</v>
+        <v>30659.375724522059</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37834439579732493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
+        <v>0.10787944937181848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="75">
+      <c r="A36" s="75"/>
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3029,14 +3024,14 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>72119.155835397556</v>
+        <v>277073.84300281649</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22927166133411547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.97492440443170436</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
@@ -3047,16 +3042,16 @@
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="72" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
@@ -3071,7 +3066,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="45">
       <c r="A40" s="15" t="s">
         <v>143</v>
       </c>
@@ -3083,16 +3078,16 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>142651.79152136287</v>
+        <v>175405.94875644124</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.64408843340534838</v>
+        <v>0.95158496764900713</v>
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="69" t="s">
+    <row r="41" spans="1:7" ht="60">
+      <c r="A41" s="77" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3103,15 +3098,15 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>180377.7433723475</v>
+        <v>156461.39983753467</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81442523021162894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+        <v>0.84880995860325081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45">
+      <c r="A42" s="78"/>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
@@ -3120,15 +3115,15 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>81037.437400560462</v>
+        <v>179296.0663055531</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36589288887195259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
+        <v>0.97268902602539953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45">
+      <c r="A43" s="79"/>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
@@ -3137,15 +3132,15 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>41016.72131758873</v>
+        <v>75333.925630099722</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18519498069474427</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+        <v>0.40868985169443228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3156,15 +3151,15 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>179826.11792925181</v>
+        <v>157177.32072653901</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81193458103238736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
+        <v>0.85269386083594179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="75"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3173,15 +3168,15 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>69023.284103679442</v>
+        <v>63453.601058614528</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31164767334992416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
+        <v>0.344238569664573</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="75">
+      <c r="A46" s="75"/>
       <c r="B46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3190,15 +3185,15 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>165984.36321759594</v>
+        <v>179523.20887031939</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74943754532935936</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+        <v>0.97392128440476033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="75" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3209,15 +3204,15 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>138972.87220644392</v>
+        <v>152954.37668319049</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62747771051922197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
+        <v>0.82978420412610465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="75"/>
       <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
@@ -3226,15 +3221,15 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>130575.53965309974</v>
+        <v>92253.38350812711</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58956283604491722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
+        <v>0.50047865299590577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45">
+      <c r="A49" s="75"/>
       <c r="B49" s="8" t="s">
         <v>156</v>
       </c>
@@ -3243,15 +3238,15 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>163761.35825104977</v>
+        <v>127340.22540871617</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73940043488661655</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+        <v>0.69082630968364278</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="75">
+      <c r="A50" s="75" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3262,15 +3257,15 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>66559.49219672475</v>
+        <v>132166.92077552312</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30052338354842123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
+        <v>0.71701134381183074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="75"/>
       <c r="B51" s="8" t="s">
         <v>159</v>
       </c>
@@ -3279,15 +3274,15 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>22200.265440081792</v>
+        <v>86946.098909056716</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10023662539382716</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
+        <v>0.4716864011976325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60">
+      <c r="A52" s="75"/>
       <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
@@ -3296,15 +3291,15 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>216638.7569683124</v>
+        <v>164343.7068631833</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97814767064952213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+        <v>0.89157182004055235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60">
+      <c r="A53" s="75" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3315,15 +3310,15 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>129212.01960995539</v>
+        <v>40509.339376008233</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58340639399018057</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
+        <v>0.21976494339497643</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75">
+      <c r="A54" s="75"/>
       <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
@@ -3332,14 +3327,14 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>72162.236811945579</v>
+        <v>16834.477291093495</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32582038797789181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.1327777888974726E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="18" customFormat="1">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="32" t="s">
@@ -3350,16 +3345,16 @@
       </c>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="72" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -3374,7 +3369,7 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="45">
       <c r="A58" s="15" t="s">
         <v>165</v>
       </c>
@@ -3386,16 +3381,16 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>91338.910767482084</v>
+        <v>35709.141283924451</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.52623791420605925</v>
+        <v>0.19057172637830577</v>
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+    <row r="59" spans="1:7" ht="60">
+      <c r="A59" s="77" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3406,15 +3401,15 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>72478.416765865899</v>
+        <v>68091.483836330139</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41757549486133594</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+        <v>0.36338906957114692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45">
+      <c r="A60" s="78"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
@@ -3423,15 +3418,15 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>168352.74279657175</v>
+        <v>31209.106853435896</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96994364697063606</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
+        <v>0.16655604581737093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45">
+      <c r="A61" s="79"/>
       <c r="B61" s="8" t="s">
         <v>170</v>
       </c>
@@ -3440,15 +3435,15 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>52999.673021279777</v>
+        <v>111456.76432391527</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30535110556902767</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+        <v>0.59481990409303265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="75" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3459,15 +3454,15 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>114083.04261214465</v>
+        <v>28437.06526722424</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65727543591278736</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+        <v>0.15176227784416485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30">
+      <c r="A63" s="75"/>
       <c r="B63" s="8" t="s">
         <v>173</v>
       </c>
@@ -3476,15 +3471,15 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>109312.75291816014</v>
+        <v>89234.648318769032</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62979199782897377</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+        <v>0.47622542495930531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75">
+      <c r="A64" s="75"/>
       <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
@@ -3493,15 +3488,15 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>66844.499394172191</v>
+        <v>90132.98392279062</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38511637200145532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+        <v>0.4810196418116317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="75" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3512,15 +3507,15 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126880.25708232867</v>
+        <v>177988.93658082696</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73100501505765669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+        <v>0.94988727538281448</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="75"/>
       <c r="B66" s="8" t="s">
         <v>177</v>
       </c>
@@ -3529,15 +3524,15 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>13011.175938021295</v>
+        <v>60578.46082204397</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4962291858531871E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+        <v>0.32329374062530603</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45">
+      <c r="A67" s="75"/>
       <c r="B67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3546,15 +3541,15 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>21957.655943392307</v>
+        <v>157313.12338184754</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12650633741319772</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
+        <v>0.83954506960765973</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="75">
+      <c r="A68" s="75" t="s">
         <v>179</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3565,15 +3560,15 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>89493.100843089022</v>
+        <v>75181.837053119612</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51560350706816216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
+        <v>0.40122870403370503</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30">
+      <c r="A69" s="75"/>
       <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
@@ -3582,15 +3577,15 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>115861.66367400161</v>
+        <v>122827.44996605444</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66752274267274259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
+        <v>0.6555027184933605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60">
+      <c r="A70" s="75"/>
       <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
@@ -3599,15 +3594,15 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>104277.12284908646</v>
+        <v>146648.10996117399</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60077983376881217</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+        <v>0.78262827053748629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60">
+      <c r="A71" s="75" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3618,15 +3613,15 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126498.31659978478</v>
+        <v>176383.99051726956</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72880451188550477</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
+        <v>0.94132203603291476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="75">
+      <c r="A72" s="75"/>
       <c r="B72" s="8" t="s">
         <v>185</v>
       </c>
@@ -3635,14 +3630,14 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>126610.66879461912</v>
+        <v>28806.897911274238</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72945181525456515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.15373599221851164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="32" t="s">
@@ -3652,25 +3647,25 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="1" customFormat="1">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="23"/>
       <c r="D74" s="24"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="74" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="69" t="s">
+      <c r="B75" s="81"/>
+      <c r="C75" s="81"/>
+      <c r="D75" s="82"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="65" t="s">
+      <c r="B76" s="83" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3680,9 +3675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="65"/>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" s="78"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="9" t="s">
         <v>77</v>
       </c>
@@ -3690,9 +3685,9 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="70"/>
-      <c r="B78" s="65"/>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" s="78"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
@@ -3700,9 +3695,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="70"/>
-      <c r="B79" s="66" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="78"/>
+      <c r="B79" s="84" t="s">
         <v>188</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3712,9 +3707,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
-      <c r="B80" s="66"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="78"/>
+      <c r="B80" s="84"/>
       <c r="C80" s="9" t="s">
         <v>80</v>
       </c>
@@ -3722,9 +3717,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
-      <c r="B81" s="66"/>
+    <row r="81" spans="1:4" ht="30">
+      <c r="A81" s="78"/>
+      <c r="B81" s="84"/>
       <c r="C81" s="9" t="s">
         <v>81</v>
       </c>
@@ -3732,8 +3727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:4" ht="30">
+      <c r="A82" s="78"/>
       <c r="B82" s="13" t="s">
         <v>189</v>
       </c>
@@ -3744,9 +3739,9 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
-      <c r="B83" s="67" t="s">
+    <row r="83" spans="1:4" ht="30">
+      <c r="A83" s="78"/>
+      <c r="B83" s="85" t="s">
         <v>190</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3756,9 +3751,9 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="70"/>
-      <c r="B84" s="67"/>
+    <row r="84" spans="1:4" ht="60">
+      <c r="A84" s="78"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="9" t="s">
         <v>84</v>
       </c>
@@ -3766,9 +3761,9 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
-      <c r="B85" s="67"/>
+    <row r="85" spans="1:4">
+      <c r="A85" s="78"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
@@ -3776,9 +3771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="70"/>
-      <c r="B86" s="65" t="s">
+    <row r="86" spans="1:4" ht="30">
+      <c r="A86" s="78"/>
+      <c r="B86" s="83" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3788,9 +3783,9 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
-      <c r="B87" s="65"/>
+    <row r="87" spans="1:4">
+      <c r="A87" s="78"/>
+      <c r="B87" s="83"/>
       <c r="C87" s="9" t="s">
         <v>87</v>
       </c>
@@ -3798,9 +3793,9 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
-      <c r="B88" s="65"/>
+    <row r="88" spans="1:4">
+      <c r="A88" s="78"/>
+      <c r="B88" s="83"/>
       <c r="C88" s="9" t="s">
         <v>88</v>
       </c>
@@ -3808,9 +3803,9 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
-      <c r="B89" s="66" t="s">
+    <row r="89" spans="1:4" ht="30">
+      <c r="A89" s="78"/>
+      <c r="B89" s="84" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3820,9 +3815,9 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
-      <c r="B90" s="66"/>
+    <row r="90" spans="1:4" ht="30">
+      <c r="A90" s="78"/>
+      <c r="B90" s="84"/>
       <c r="C90" s="9" t="s">
         <v>90</v>
       </c>
@@ -3830,26 +3825,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
-      <c r="B91" s="67" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="78"/>
+      <c r="B91" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="86" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="10">
         <v>320000</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
-      <c r="B92" s="67"/>
-      <c r="C92" s="73"/>
+    <row r="92" spans="1:4">
+      <c r="A92" s="78"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="86"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+    <row r="93" spans="1:4" ht="30">
+      <c r="A93" s="78"/>
       <c r="B93" s="8" t="s">
         <v>194</v>
       </c>
@@ -3860,8 +3855,8 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="70"/>
+    <row r="94" spans="1:4">
+      <c r="A94" s="78"/>
       <c r="B94" s="13" t="s">
         <v>195</v>
       </c>
@@ -3872,8 +3867,8 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
+    <row r="95" spans="1:4">
+      <c r="A95" s="79"/>
       <c r="B95" s="11"/>
       <c r="C95" s="14" t="s">
         <v>40</v>
@@ -3885,6 +3880,25 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
@@ -3900,25 +3914,6 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A76:A95"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B83:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3934,11 +3929,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -3948,16 +3943,16 @@
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="81" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="27" t="s">
         <v>60</v>
       </c>
@@ -3974,55 +3969,55 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+    <row r="4" spans="2:6" s="1" customFormat="1">
+      <c r="B4" s="92" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="62">
         <v>1</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="64">
         <v>3000000</v>
       </c>
-      <c r="F4" s="91">
+      <c r="F4" s="65">
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="87" t="s">
+    <row r="5" spans="2:6" s="1" customFormat="1">
+      <c r="B5" s="93"/>
+      <c r="C5" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="64">
         <v>1000000</v>
       </c>
-      <c r="F5" s="91">
+      <c r="F5" s="65">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="84"/>
-      <c r="C6" s="89" t="s">
+    <row r="6" spans="2:6" s="1" customFormat="1">
+      <c r="B6" s="94"/>
+      <c r="C6" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90">
+      <c r="D6" s="62"/>
+      <c r="E6" s="64">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="64">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="86" t="s">
+    <row r="7" spans="2:6" s="1" customFormat="1">
+      <c r="B7" s="60" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -4038,8 +4033,8 @@
         <v>3310000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="92" t="s">
         <v>211</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -4055,8 +4050,8 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
+    <row r="9" spans="2:6" s="1" customFormat="1">
+      <c r="B9" s="93"/>
       <c r="C9" s="28" t="s">
         <v>213</v>
       </c>
@@ -4070,8 +4065,8 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84"/>
+    <row r="10" spans="2:6" s="1" customFormat="1">
+      <c r="B10" s="94"/>
       <c r="C10" s="46" t="s">
         <v>214</v>
       </c>
@@ -4087,8 +4082,8 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
+    <row r="11" spans="2:6" s="1" customFormat="1">
+      <c r="B11" s="92" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -4105,8 +4100,8 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="83"/>
+    <row r="12" spans="2:6">
+      <c r="B12" s="93"/>
       <c r="C12" s="28" t="s">
         <v>100</v>
       </c>
@@ -4121,8 +4116,8 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
+    <row r="13" spans="2:6">
+      <c r="B13" s="93"/>
       <c r="C13" s="28" t="s">
         <v>201</v>
       </c>
@@ -4137,8 +4132,8 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="83"/>
+    <row r="14" spans="2:6">
+      <c r="B14" s="93"/>
       <c r="C14" s="28" t="s">
         <v>202</v>
       </c>
@@ -4153,8 +4148,8 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
+    <row r="15" spans="2:6">
+      <c r="B15" s="94"/>
       <c r="C15" s="46" t="s">
         <v>214</v>
       </c>
@@ -4170,8 +4165,8 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="85" t="s">
+    <row r="16" spans="2:6">
+      <c r="B16" s="87" t="s">
         <v>215</v>
       </c>
       <c r="C16" s="53" t="s">
@@ -4187,8 +4182,8 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="78"/>
+    <row r="17" spans="2:6" s="1" customFormat="1">
+      <c r="B17" s="88"/>
       <c r="C17" s="53" t="s">
         <v>217</v>
       </c>
@@ -4202,8 +4197,8 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="78"/>
+    <row r="18" spans="2:6" s="1" customFormat="1">
+      <c r="B18" s="88"/>
       <c r="C18" s="53" t="s">
         <v>218</v>
       </c>
@@ -4217,8 +4212,8 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="78"/>
+    <row r="19" spans="2:6" s="1" customFormat="1">
+      <c r="B19" s="88"/>
       <c r="C19" s="54" t="s">
         <v>214</v>
       </c>
@@ -4235,13 +4230,13 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" s="1" customFormat="1">
       <c r="B20" s="51"/>
       <c r="C20" s="54" t="s">
         <v>226</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="93">
+      <c r="E20" s="67">
         <f>SUM(E6,E7,E10,E15,E19)</f>
         <v>20110000</v>
       </c>
@@ -4250,13 +4245,13 @@
         <v>20110000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="92"/>
+    <row r="21" spans="2:6" s="1" customFormat="1">
+      <c r="B21" s="66"/>
       <c r="C21" s="54" t="s">
         <v>225</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="94">
+      <c r="E21" s="68">
         <f>E20*10%</f>
         <v>2011000</v>
       </c>
@@ -4265,12 +4260,12 @@
         <v>2011000</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" s="1" customFormat="1">
       <c r="B22" s="49"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="80"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="59">
         <f>SUM(E20,E21)</f>
         <v>22121000</v>
@@ -4280,15 +4275,15 @@
         <v>22121000</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="50"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6">
       <c r="B24" s="50"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="50"/>
       <c r="C25" s="1"/>
     </row>

--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\ProyectoEAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PF" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="PRESUPUESTO" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -714,7 +719,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$-240A]General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,44 +1260,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1639,7 +1644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1649,18 +1654,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
@@ -1669,7 +1674,7 @@
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="35"/>
       <c r="B5" s="34" t="s">
         <v>0</v>
@@ -1691,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
         <v>41</v>
@@ -1713,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="36" t="s">
         <v>42</v>
@@ -1735,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="36" t="s">
         <v>43</v>
@@ -1757,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="36" t="s">
         <v>44</v>
@@ -1779,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="36" t="s">
         <v>45</v>
@@ -1801,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="36" t="s">
         <v>46</v>
@@ -1823,7 +1828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
       <c r="B12" s="36" t="s">
         <v>205</v>
@@ -1845,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
       <c r="B13" s="36" t="s">
         <v>206</v>
@@ -1861,7 +1866,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
       <c r="B14" s="36" t="s">
         <v>207</v>
@@ -1877,7 +1882,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
       <c r="B15" s="36" t="s">
         <v>209</v>
@@ -1893,7 +1898,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
       <c r="B16" s="36" t="s">
         <v>208</v>
@@ -1909,7 +1914,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="36" t="s">
         <v>47</v>
@@ -1932,7 +1937,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="36" t="s">
         <v>48</v>
@@ -1954,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35"/>
       <c r="B19" s="36" t="s">
         <v>49</v>
@@ -1970,7 +1975,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="35"/>
       <c r="B20" s="36" t="s">
         <v>50</v>
@@ -1992,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="36" t="s">
         <v>51</v>
@@ -2014,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
       <c r="B22" s="36" t="s">
         <v>52</v>
@@ -2036,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="36" t="s">
         <v>53</v>
@@ -2058,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="36" t="s">
         <v>54</v>
@@ -2080,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="15.75">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="36" t="s">
         <v>55</v>
@@ -2101,7 +2106,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1">
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="36" t="s">
         <v>56</v>
@@ -2117,7 +2122,7 @@
       <c r="G26" s="35"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1">
+    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
       <c r="B27" s="36" t="s">
         <v>203</v>
@@ -2133,7 +2138,7 @@
       <c r="G27" s="35"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="35"/>
       <c r="B28" s="34" t="s">
         <v>40</v>
@@ -2149,7 +2154,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -2158,7 +2163,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
       <c r="B30" s="69" t="s">
         <v>28</v>
@@ -2169,7 +2174,7 @@
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="35"/>
       <c r="B31" s="36" t="s">
         <v>24</v>
@@ -2183,7 +2188,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
@@ -2192,7 +2197,7 @@
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="69" t="s">
         <v>29</v>
@@ -2203,7 +2208,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
       <c r="B34" s="36" t="s">
         <v>25</v>
@@ -2217,7 +2222,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
@@ -2226,7 +2231,7 @@
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
       <c r="B36" s="69" t="s">
         <v>30</v>
@@ -2237,7 +2242,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="36" t="s">
         <v>26</v>
@@ -2250,7 +2255,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="36" t="s">
         <v>27</v>
@@ -2264,7 +2269,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -2273,7 +2278,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="69" t="s">
         <v>31</v>
@@ -2284,7 +2289,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="36" t="s">
         <v>32</v>
@@ -2298,7 +2303,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -2307,7 +2312,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="39" t="s">
         <v>33</v>
@@ -2323,7 +2328,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="40" t="s">
         <v>34</v>
@@ -2339,7 +2344,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="41" t="s">
         <v>35</v>
@@ -2355,7 +2360,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
       <c r="B46" s="41" t="s">
         <v>204</v>
@@ -2371,7 +2376,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
@@ -2380,7 +2385,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
@@ -2389,7 +2394,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="E49" s="35"/>
       <c r="F49" s="35"/>
@@ -2416,11 +2421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
@@ -2429,22 +2434,22 @@
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="74"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="76" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="25"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>59</v>
       </c>
@@ -2459,7 +2464,7 @@
       </c>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="45">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>95</v>
       </c>
@@ -2471,17 +2476,17 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>81693.68946854661</v>
+        <v>54981.538161905715</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.7004093411657365</v>
+        <v>0.45861721769990171</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="60">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2492,15 +2497,15 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>112227.63576322276</v>
+        <v>115611.79308157502</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96219530464187708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45">
-      <c r="A6" s="78"/>
+        <v>0.96435204704958533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
       <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2509,15 +2514,15 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>36854.426118600553</v>
+        <v>9345.0856587081471</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3159752544498412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="79"/>
+        <v>7.7950114297337669E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="80"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
@@ -2526,15 +2531,15 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>62764.882287186687</v>
+        <v>53022.442908632052</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5381212445795972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="75" t="s">
+        <v>0.44227582667479637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2545,15 +2550,15 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>47175.973025909603</v>
+        <v>21344.866284176544</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40446811009376438</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="75"/>
+        <v>0.17804382188434187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2562,15 +2567,15 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>10190.72747897648</v>
+        <v>50562.888661499826</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7371261672513967E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="75">
-      <c r="A10" s="75"/>
+        <v>0.42175995965266755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2579,15 +2584,15 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>18361.660312349999</v>
+        <v>81774.486193455668</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15742560393276994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="75" t="s">
+        <v>0.68210509546759046</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2598,15 +2603,15 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>30884.686167487984</v>
+        <v>45364.139566811689</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26479306824561322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="75"/>
+        <v>0.37839566092561439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="8" t="s">
         <v>113</v>
       </c>
@@ -2615,15 +2620,15 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>87437.628026358172</v>
+        <v>43193.920041618032</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74965559564567696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45">
-      <c r="A13" s="75"/>
+        <v>0.36029322011154641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
       <c r="B13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2632,15 +2637,15 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>16661.967212125022</v>
+        <v>17311.373283735487</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14285310840395826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="75">
-      <c r="A14" s="75" t="s">
+        <v>0.14439926774278511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2651,15 +2656,15 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48433.279259244933</v>
+        <v>72891.803118687632</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41524775581992568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30">
-      <c r="A15" s="75"/>
+        <v>0.6080120174335778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -2668,15 +2673,15 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>50784.583753323117</v>
+        <v>15247.683142520444</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43540690938846927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="60">
-      <c r="A16" s="75"/>
+        <v>0.12718541992405474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2685,15 +2690,15 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>67770.16728707857</v>
+        <v>66592.294072127435</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58103457597554053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60">
-      <c r="A17" s="75" t="s">
+        <v>0.55546595545725963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2704,15 +2709,15 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>17291.029723457519</v>
+        <v>57912.423424883549</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14824644125476671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="75">
-      <c r="A18" s="75"/>
+        <v>0.48306459566787285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
       <c r="B18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2721,14 +2726,14 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>111467.664116132</v>
+        <v>94843.262399662926</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95567960870371749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.79111561032048561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="32" t="s">
@@ -2739,16 +2744,16 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
@@ -2763,7 +2768,7 @@
       </c>
       <c r="E21" s="19"/>
     </row>
-    <row r="22" spans="1:7" ht="45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>122</v>
       </c>
@@ -2775,16 +2780,16 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>154363.86511715647</v>
+        <v>154324.9382770274</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>0.54315159321477313</v>
+        <v>0.46298128363044411</v>
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="60">
-      <c r="A23" s="77" t="s">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2795,15 +2800,15 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>37853.013770482539</v>
+        <v>242264.24295249273</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13319130563240378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="78"/>
+        <v>0.72680288378640745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="79"/>
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2812,15 +2817,15 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>100967.0229478143</v>
+        <v>72970.364883005692</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35526707843598027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45">
-      <c r="A25" s="79"/>
+        <v>0.2189141533293254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2829,15 +2834,15 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>219230.69178754685</v>
+        <v>79401.264911898266</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77139490797026267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="75" t="s">
+        <v>0.23820712297841129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2848,15 +2853,15 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>259046.94146633163</v>
+        <v>53776.920150334423</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91149414319254485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="75"/>
+        <v>0.16133301460454863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="77"/>
       <c r="B27" s="8" t="s">
         <v>130</v>
       </c>
@@ -2865,15 +2870,15 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>29084.576042101267</v>
+        <v>106669.57272313851</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10233828884275431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75">
-      <c r="A28" s="75"/>
+        <v>0.32001318941088608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="77"/>
       <c r="B28" s="8" t="s">
         <v>131</v>
       </c>
@@ -2882,15 +2887,15 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>253612.80869016345</v>
+        <v>155521.44227919102</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89237336079391671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30">
-      <c r="A29" s="75" t="s">
+        <v>0.46657084579049024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="77" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2901,15 +2906,15 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>164427.88935431276</v>
+        <v>26260.421858471993</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57856331858466348</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="75"/>
+        <v>7.8782366326869746E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="77"/>
       <c r="B30" s="8" t="s">
         <v>134</v>
       </c>
@@ -2918,15 +2923,15 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>36397.699321220774</v>
+        <v>232271.84240137343</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12807057118367071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="45">
-      <c r="A31" s="75"/>
+        <v>0.69682526328412586</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="77"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
@@ -2935,15 +2940,15 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>167305.77875428062</v>
+        <v>185221.40089397301</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58868958881961841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="75">
-      <c r="A32" s="75" t="s">
+        <v>0.55567196656048135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="77" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2954,15 +2959,15 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>17170.388460500966</v>
+        <v>306020.37987174443</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0416496058578684E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="30">
-      <c r="A33" s="75"/>
+        <v>0.91807396699401034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="77"/>
       <c r="B33" s="8" t="s">
         <v>138</v>
       </c>
@@ -2971,15 +2976,15 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>28261.722435358253</v>
+        <v>87800.504067951886</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9442959374644757E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60">
-      <c r="A34" s="75"/>
+        <v>0.2634051925153531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="77"/>
       <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
@@ -2988,15 +2993,15 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>224544.38312539176</v>
+        <v>103016.33610867862</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79009189974234317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="60">
-      <c r="A35" s="75" t="s">
+        <v>0.30905332643571226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3007,15 +3012,15 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>30659.375724522059</v>
+        <v>16271.825484844601</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10787944937181848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="75">
-      <c r="A36" s="75"/>
+        <v>4.8816158516522545E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3024,14 +3029,14 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>277073.84300281649</v>
+        <v>178208.54313587383</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97492440443170436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="1" customFormat="1">
+        <v>0.5346330993300008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
@@ -3042,16 +3047,16 @@
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="76" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>59</v>
       </c>
@@ -3066,7 +3071,7 @@
       </c>
       <c r="E39" s="19"/>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>143</v>
       </c>
@@ -3078,16 +3083,16 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>175405.94875644124</v>
+        <v>216579.12545697033</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.95158496764900713</v>
+        <v>0.91761850370438891</v>
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="60">
-      <c r="A41" s="77" t="s">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="78" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3098,15 +3103,15 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>156461.39983753467</v>
+        <v>85371.559811255516</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84880995860325081</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45">
-      <c r="A42" s="78"/>
+        <v>0.36170855712721139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
@@ -3115,15 +3120,15 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>179296.0663055531</v>
+        <v>77472.417804921221</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97268902602539953</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="45">
-      <c r="A43" s="79"/>
+        <v>0.32824088634819593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="80"/>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
@@ -3132,15 +3137,15 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>75333.925630099722</v>
+        <v>196429.53453240497</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40868985169443228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
-      <c r="A44" s="75" t="s">
+        <v>0.83224722225959102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3151,15 +3156,15 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>157177.32072653901</v>
+        <v>17127.522001202946</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85269386083594179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="30">
-      <c r="A45" s="75"/>
+        <v>7.2567155665380079E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="77"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3168,15 +3173,15 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>63453.601058614528</v>
+        <v>146001.28613869296</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.344238569664573</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="75">
-      <c r="A46" s="75"/>
+        <v>0.61858907890050308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="77"/>
       <c r="B46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3185,15 +3190,15 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>179523.20887031939</v>
+        <v>169454.6545850065</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97392128440476033</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="30">
-      <c r="A47" s="75" t="s">
+        <v>0.71795805001037016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="77" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3204,15 +3209,15 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>152954.37668319049</v>
+        <v>92565.715024831996</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82978420412610465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="75"/>
+        <v>0.39218928756958615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="77"/>
       <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
@@ -3221,15 +3226,15 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>92253.38350812711</v>
+        <v>199862.24852747389</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50047865299590577</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45">
-      <c r="A49" s="75"/>
+        <v>0.84679119953881443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="77"/>
       <c r="B49" s="8" t="s">
         <v>156</v>
       </c>
@@ -3238,15 +3243,15 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>127340.22540871617</v>
+        <v>110946.48449982979</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69082630968364278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="75">
-      <c r="A50" s="75" t="s">
+        <v>0.4700662950927964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="77" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3257,15 +3262,15 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>132166.92077552312</v>
+        <v>147038.57033640589</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71701134381183074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="75"/>
+        <v>0.6229839215309424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="77"/>
       <c r="B51" s="8" t="s">
         <v>159</v>
       </c>
@@ -3274,15 +3279,15 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>86946.098909056716</v>
+        <v>82487.783842880133</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4716864011976325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60">
-      <c r="A52" s="75"/>
+        <v>0.34949036119749777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="77"/>
       <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
@@ -3291,15 +3296,15 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>164343.7068631833</v>
+        <v>223.80950728675674</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.89157182004055235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60">
-      <c r="A53" s="75" t="s">
+        <v>9.4825272176146669E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="77" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3310,15 +3315,15 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>40509.339376008233</v>
+        <v>91475.066533959849</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21976494339497643</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="75">
-      <c r="A54" s="75"/>
+        <v>0.38756834714354127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="77"/>
       <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
@@ -3327,14 +3332,14 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>16834.477291093495</v>
+        <v>166964.22139687731</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1327777888974726E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="18" customFormat="1">
+        <v>0.70740639794858873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="32" t="s">
@@ -3345,16 +3350,16 @@
       </c>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="76" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="76"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
@@ -3369,7 +3374,7 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="45">
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>165</v>
       </c>
@@ -3381,16 +3386,16 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>35709.141283924451</v>
+        <v>85209.470201106524</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.19057172637830577</v>
+        <v>0.47049083062409491</v>
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="60">
-      <c r="A59" s="77" t="s">
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="78" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3401,15 +3406,15 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>68091.483836330139</v>
+        <v>6431.4350555098217</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36338906957114692</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="45">
-      <c r="A60" s="78"/>
+        <v>3.5511677448881063E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="79"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
@@ -3418,15 +3423,15 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>31209.106853435896</v>
+        <v>120614.57891629079</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16655604581737093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45">
-      <c r="A61" s="79"/>
+        <v>0.6659829392879405</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="80"/>
       <c r="B61" s="8" t="s">
         <v>170</v>
       </c>
@@ -3435,15 +3440,15 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>111456.76432391527</v>
+        <v>60953.922671206761</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59481990409303265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30">
-      <c r="A62" s="75" t="s">
+        <v>0.33656190608494718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="77" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3454,15 +3459,15 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>28437.06526722424</v>
+        <v>157844.35055349706</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15176227784416485</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="30">
-      <c r="A63" s="75"/>
+        <v>0.87155006862454654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="77"/>
       <c r="B63" s="8" t="s">
         <v>173</v>
       </c>
@@ -3471,15 +3476,15 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>89234.648318769032</v>
+        <v>173316.07130397239</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47622542495930531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="75">
-      <c r="A64" s="75"/>
+        <v>0.95697839871385459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="77"/>
       <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
@@ -3488,15 +3493,15 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>90132.98392279062</v>
+        <v>174705.63739702167</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4810196418116317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30">
-      <c r="A65" s="75" t="s">
+        <v>0.96465099782499597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="77" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3507,15 +3512,15 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>177988.93658082696</v>
+        <v>115872.83241004577</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94988727538281448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="75"/>
+        <v>0.6398010108348382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="77"/>
       <c r="B66" s="8" t="s">
         <v>177</v>
       </c>
@@ -3524,15 +3529,15 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>60578.46082204397</v>
+        <v>55999.44209797903</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32329374062530603</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="45">
-      <c r="A67" s="75"/>
+        <v>0.30920534965163904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="77"/>
       <c r="B67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3541,15 +3546,15 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>157313.12338184754</v>
+        <v>60083.881478108051</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83954506960765973</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="75">
-      <c r="A68" s="75" t="s">
+        <v>0.33175790480842149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A68" s="77" t="s">
         <v>179</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3560,15 +3565,15 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>75181.837053119612</v>
+        <v>46486.598292422452</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40122870403370503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30">
-      <c r="A69" s="75"/>
+        <v>0.25667943001958071</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="77"/>
       <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
@@ -3577,15 +3582,15 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>122827.44996605444</v>
+        <v>75733.521516620182</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6555027184933605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60">
-      <c r="A70" s="75"/>
+        <v>0.41816863032179352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="77"/>
       <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
@@ -3594,15 +3599,15 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>146648.10996117399</v>
+        <v>65880.743068254102</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78262827053748629</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="60">
-      <c r="A71" s="75" t="s">
+        <v>0.36376573466728279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="77" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3613,15 +3618,15 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>176383.99051726956</v>
+        <v>111880.51759206716</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.94132203603291476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="75">
-      <c r="A72" s="75"/>
+        <v>0.61775712873592981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A72" s="77"/>
       <c r="B72" s="8" t="s">
         <v>185</v>
       </c>
@@ -3630,14 +3635,14 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>28806.897911274238</v>
+        <v>88986.997445898276</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15373599221851164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="1" customFormat="1">
+        <v>0.49134874614583868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
       <c r="C73" s="32" t="s">
@@ -3647,25 +3652,25 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="1" customFormat="1">
+    <row r="74" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="23"/>
       <c r="D74" s="24"/>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="80" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="81"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="82"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="77" t="s">
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="85"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="83" t="s">
+      <c r="B76" s="74" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3675,9 +3680,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30">
-      <c r="A77" s="78"/>
-      <c r="B77" s="83"/>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="79"/>
+      <c r="B77" s="74"/>
       <c r="C77" s="9" t="s">
         <v>77</v>
       </c>
@@ -3685,9 +3690,9 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30">
-      <c r="A78" s="78"/>
-      <c r="B78" s="83"/>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="79"/>
+      <c r="B78" s="74"/>
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
@@ -3695,9 +3700,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="78"/>
-      <c r="B79" s="84" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="79"/>
+      <c r="B79" s="75" t="s">
         <v>188</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3707,9 +3712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="78"/>
-      <c r="B80" s="84"/>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="79"/>
+      <c r="B80" s="75"/>
       <c r="C80" s="9" t="s">
         <v>80</v>
       </c>
@@ -3717,9 +3722,9 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30">
-      <c r="A81" s="78"/>
-      <c r="B81" s="84"/>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="79"/>
+      <c r="B81" s="75"/>
       <c r="C81" s="9" t="s">
         <v>81</v>
       </c>
@@ -3727,8 +3732,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30">
-      <c r="A82" s="78"/>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="79"/>
       <c r="B82" s="13" t="s">
         <v>189</v>
       </c>
@@ -3739,9 +3744,9 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30">
-      <c r="A83" s="78"/>
-      <c r="B83" s="85" t="s">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
+      <c r="B83" s="76" t="s">
         <v>190</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3751,9 +3756,9 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60">
-      <c r="A84" s="78"/>
-      <c r="B84" s="85"/>
+    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A84" s="79"/>
+      <c r="B84" s="76"/>
       <c r="C84" s="9" t="s">
         <v>84</v>
       </c>
@@ -3761,9 +3766,9 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="78"/>
-      <c r="B85" s="85"/>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
+      <c r="B85" s="76"/>
       <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
@@ -3771,9 +3776,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30">
-      <c r="A86" s="78"/>
-      <c r="B86" s="83" t="s">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="79"/>
+      <c r="B86" s="74" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3783,9 +3788,9 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="78"/>
-      <c r="B87" s="83"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="79"/>
+      <c r="B87" s="74"/>
       <c r="C87" s="9" t="s">
         <v>87</v>
       </c>
@@ -3793,9 +3798,9 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="78"/>
-      <c r="B88" s="83"/>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="79"/>
+      <c r="B88" s="74"/>
       <c r="C88" s="9" t="s">
         <v>88</v>
       </c>
@@ -3803,9 +3808,9 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="30">
-      <c r="A89" s="78"/>
-      <c r="B89" s="84" t="s">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="79"/>
+      <c r="B89" s="75" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3815,9 +3820,9 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="30">
-      <c r="A90" s="78"/>
-      <c r="B90" s="84"/>
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="79"/>
+      <c r="B90" s="75"/>
       <c r="C90" s="9" t="s">
         <v>90</v>
       </c>
@@ -3825,26 +3830,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="78"/>
-      <c r="B91" s="85" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="79"/>
+      <c r="B91" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="82" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="10">
         <v>320000</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="78"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="86"/>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="79"/>
+      <c r="B92" s="76"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="10"/>
     </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="78"/>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="79"/>
       <c r="B93" s="8" t="s">
         <v>194</v>
       </c>
@@ -3855,8 +3860,8 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="78"/>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="79"/>
       <c r="B94" s="13" t="s">
         <v>195</v>
       </c>
@@ -3867,8 +3872,8 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="79"/>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="80"/>
       <c r="B95" s="11"/>
       <c r="C95" s="14" t="s">
         <v>40</v>
@@ -3880,25 +3885,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A76:A95"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
@@ -3914,6 +3900,25 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3933,7 +3938,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -3943,7 +3948,7 @@
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="91" t="s">
         <v>200</v>
       </c>
@@ -3952,7 +3957,7 @@
       <c r="E2" s="91"/>
       <c r="F2" s="91"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
         <v>60</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1">
+    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="92" t="s">
         <v>222</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1">
+    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="93"/>
       <c r="C5" s="61" t="s">
         <v>224</v>
@@ -4001,7 +4006,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1">
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="94"/>
       <c r="C6" s="63" t="s">
         <v>214</v>
@@ -4016,7 +4021,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1">
+    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="60" t="s">
         <v>220</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>3310000</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="92" t="s">
         <v>211</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="1" customFormat="1">
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="93"/>
       <c r="C9" s="28" t="s">
         <v>213</v>
@@ -4065,7 +4070,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="1" customFormat="1">
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="94"/>
       <c r="C10" s="46" t="s">
         <v>214</v>
@@ -4082,7 +4087,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1">
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
         <v>210</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
       <c r="C12" s="28" t="s">
         <v>100</v>
@@ -4116,7 +4121,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="93"/>
       <c r="C13" s="28" t="s">
         <v>201</v>
@@ -4132,7 +4137,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="93"/>
       <c r="C14" s="28" t="s">
         <v>202</v>
@@ -4148,7 +4153,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="94"/>
       <c r="C15" s="46" t="s">
         <v>214</v>
@@ -4165,7 +4170,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="87" t="s">
         <v>215</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="1" customFormat="1">
+    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="88"/>
       <c r="C17" s="53" t="s">
         <v>217</v>
@@ -4197,7 +4202,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="1" customFormat="1">
+    <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="88"/>
       <c r="C18" s="53" t="s">
         <v>218</v>
@@ -4212,7 +4217,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="1" customFormat="1">
+    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="88"/>
       <c r="C19" s="54" t="s">
         <v>214</v>
@@ -4230,7 +4235,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="1" customFormat="1">
+    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="51"/>
       <c r="C20" s="54" t="s">
         <v>226</v>
@@ -4245,7 +4250,7 @@
         <v>20110000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="1" customFormat="1">
+    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="66"/>
       <c r="C21" s="54" t="s">
         <v>225</v>
@@ -4260,7 +4265,7 @@
         <v>2011000</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1">
+    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="89" t="s">
         <v>219</v>
@@ -4275,15 +4280,15 @@
         <v>22121000</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="50"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="50"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="50"/>
       <c r="C25" s="1"/>
     </row>

--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PF" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1215,9 +1215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="9" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="9" applyFont="1" applyFill="1"/>
@@ -1240,9 +1237,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,6 +1254,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,21 +1282,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1295,9 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2165,11 +2159,11 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="35"/>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -2179,11 +2173,11 @@
       <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="71">
         <f>(H25*0.01)+0.65</f>
         <v>1.04</v>
       </c>
-      <c r="D31" s="73"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -2199,11 +2193,11 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -2213,11 +2207,11 @@
       <c r="B34" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="70">
         <f>D28*C31</f>
         <v>153.92000000000002</v>
       </c>
-      <c r="D34" s="72"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -2233,11 +2227,11 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="35"/>
-      <c r="B36" s="69" t="s">
+      <c r="B36" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="71"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="35"/>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -2247,10 +2241,10 @@
       <c r="B37" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="71">
         <v>8</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="71"/>
       <c r="E37" s="35"/>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -2260,11 +2254,11 @@
       <c r="B38" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="70">
         <f>C34*C37</f>
         <v>1231.3600000000001</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -2280,11 +2274,11 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="69" t="s">
+      <c r="B40" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -2294,11 +2288,11 @@
       <c r="B41" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="72">
+      <c r="C41" s="70">
         <f>(C34/150) * C34^0.4</f>
         <v>7.6934620793920665</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -2421,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
@@ -2435,18 +2429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2476,17 +2470,17 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>54981.538161905715</v>
+        <v>91177.338459436083</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.45861721769990171</v>
+        <v>0.79635000150252089</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="75" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2497,15 +2491,15 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>115611.79308157502</v>
+        <v>8232.1920870235408</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96435204704958533</v>
+        <v>7.1900609204411103E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="8" t="s">
         <v>105</v>
       </c>
@@ -2514,15 +2508,15 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>9345.0856587081471</v>
+        <v>71361.973733848965</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7950114297337669E-2</v>
+        <v>0.62328105700799985</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="8" t="s">
         <v>106</v>
       </c>
@@ -2531,15 +2525,15 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53022.442908632052</v>
+        <v>67554.000434290079</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44227582667479637</v>
+        <v>0.59002192053765423</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="73" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2550,15 +2544,15 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21344.866284176544</v>
+        <v>100855.41939697726</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17804382188434187</v>
+        <v>0.88087911695351939</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="8" t="s">
         <v>109</v>
       </c>
@@ -2567,15 +2561,15 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>50562.888661499826</v>
+        <v>10220.965566302837</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42175995965266755</v>
+        <v>8.9270712236282801E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="8" t="s">
         <v>110</v>
       </c>
@@ -2584,15 +2578,15 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>81774.486193455668</v>
+        <v>19524.916691553644</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68210509546759046</v>
+        <v>0.17053214866074196</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="73" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2603,15 +2597,15 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>45364.139566811689</v>
+        <v>95562.785119003849</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37839566092561439</v>
+        <v>0.83465283544068991</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="73"/>
       <c r="B12" s="8" t="s">
         <v>113</v>
       </c>
@@ -2620,15 +2614,15 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43193.920041618032</v>
+        <v>41419.57378100232</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36029322011154641</v>
+        <v>0.36176179520100216</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="8" t="s">
         <v>114</v>
       </c>
@@ -2637,15 +2631,15 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>17311.373283735487</v>
+        <v>86346.994609919653</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14439926774278511</v>
+        <v>0.75416140072940852</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="73" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2656,15 +2650,15 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>72891.803118687632</v>
+        <v>7524.4300159994737</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6080120174335778</v>
+        <v>6.5718959949819244E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="8" t="s">
         <v>117</v>
       </c>
@@ -2673,15 +2667,15 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>15247.683142520444</v>
+        <v>71330.861141444941</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12718541992405474</v>
+        <v>0.62300931719384944</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
@@ -2690,15 +2684,15 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>66592.294072127435</v>
+        <v>69283.487189833031</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55546595545725963</v>
+        <v>0.60512739305578389</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="73" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2709,15 +2703,15 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>57912.423424883549</v>
+        <v>24896.624497414396</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48306459566787285</v>
+        <v>0.21744906454737367</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="8" t="s">
         <v>121</v>
       </c>
@@ -2726,11 +2720,11 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>94843.262399662926</v>
+        <v>34708.437275949771</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79111561032048561</v>
+        <v>0.30314620435152917</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2745,12 +2739,12 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2780,16 +2774,16 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>154324.9382770274</v>
+        <v>7386.5021196400066</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>0.46298128363044411</v>
+        <v>2.0374916567785228E-2</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="75" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2800,15 +2794,15 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>242264.24295249273</v>
+        <v>275966.35852175381</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72680288378640745</v>
+        <v>0.76122519689607515</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
+      <c r="A24" s="76"/>
       <c r="B24" s="8" t="s">
         <v>126</v>
       </c>
@@ -2817,15 +2811,15 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>72970.364883005692</v>
+        <v>261803.21527396049</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2189141533293254</v>
+        <v>0.72215760342120272</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="8" t="s">
         <v>127</v>
       </c>
@@ -2834,15 +2828,15 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>79401.264911898266</v>
+        <v>105637.83574567604</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23820712297841129</v>
+        <v>0.29139125053475901</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="73" t="s">
         <v>128</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2853,15 +2847,15 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>53776.920150334423</v>
+        <v>23316.170338388027</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16133301460454863</v>
+        <v>6.4315289920755858E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+      <c r="A27" s="73"/>
       <c r="B27" s="8" t="s">
         <v>130</v>
       </c>
@@ -2870,15 +2864,15 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>106669.57272313851</v>
+        <v>17047.531221990037</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32001318941088608</v>
+        <v>4.7023885014696121E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="A28" s="73"/>
       <c r="B28" s="8" t="s">
         <v>131</v>
       </c>
@@ -2887,15 +2881,15 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>155521.44227919102</v>
+        <v>50450.588511895534</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46657084579049024</v>
+        <v>0.13916282904629196</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="73" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2906,15 +2900,15 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>26260.421858471993</v>
+        <v>206170.40449882453</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8782366326869746E-2</v>
+        <v>0.56870014011649817</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="73"/>
       <c r="B30" s="8" t="s">
         <v>134</v>
       </c>
@@ -2923,15 +2917,15 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>232271.84240137343</v>
+        <v>208773.05239354991</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69682526328412586</v>
+        <v>0.57587928023606205</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="A31" s="73"/>
       <c r="B31" s="8" t="s">
         <v>135</v>
       </c>
@@ -2940,15 +2934,15 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>185221.40089397301</v>
+        <v>56466.962071976508</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55567196656048135</v>
+        <v>0.15575838501335004</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="77" t="s">
+      <c r="A32" s="73" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -2959,15 +2953,15 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>306020.37987174443</v>
+        <v>207689.91636273061</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91807396699401034</v>
+        <v>0.57289155940392056</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="73"/>
       <c r="B33" s="8" t="s">
         <v>138</v>
       </c>
@@ -2976,15 +2970,15 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>87800.504067951886</v>
+        <v>280824.34149437287</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2634051925153531</v>
+        <v>0.7746254499727856</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="73"/>
       <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
@@ -2993,15 +2987,15 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>103016.33610867862</v>
+        <v>87383.683895541006</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30905332643571226</v>
+        <v>0.24103902495652951</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="73" t="s">
         <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -3012,15 +3006,15 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>16271.825484844601</v>
+        <v>14758.385407388105</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8816158516522545E-2</v>
+        <v>4.0709508571210806E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
+      <c r="A36" s="73"/>
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3029,11 +3023,11 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>178208.54313587383</v>
+        <v>196325.05214231223</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5346330993300008</v>
+        <v>0.54154273467678204</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3048,12 +3042,12 @@
       <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,16 +3077,16 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>216579.12545697033</v>
+        <v>213903.95700716184</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.91761850370438891</v>
+        <v>0.83429474989295005</v>
       </c>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="75" t="s">
         <v>145</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -3103,15 +3097,15 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>85371.559811255516</v>
+        <v>44229.725547387265</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36170855712721139</v>
+        <v>0.17251026268838865</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="A42" s="76"/>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
@@ -3120,15 +3114,15 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>77472.417804921221</v>
+        <v>52776.798656325242</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32824088634819593</v>
+        <v>0.2058466175717133</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
@@ -3137,15 +3131,15 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>196429.53453240497</v>
+        <v>13034.125435875969</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83224722225959102</v>
+        <v>5.0837313029386322E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="73" t="s">
         <v>149</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3156,15 +3150,15 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>17127.522001202946</v>
+        <v>64888.070499296358</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2567155665380079E-2</v>
+        <v>0.25308450252948811</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
+      <c r="A45" s="73"/>
       <c r="B45" s="8" t="s">
         <v>151</v>
       </c>
@@ -3173,15 +3167,15 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>146001.28613869296</v>
+        <v>206981.97890945451</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61858907890050308</v>
+        <v>0.80729679218056483</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
+      <c r="A46" s="73"/>
       <c r="B46" s="8" t="s">
         <v>152</v>
       </c>
@@ -3190,15 +3184,15 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>169454.6545850065</v>
+        <v>7342.8630304674343</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71795805001037016</v>
+        <v>2.8639545341823225E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="77" t="s">
+      <c r="A47" s="73" t="s">
         <v>153</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -3209,15 +3203,15 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>92565.715024831996</v>
+        <v>123976.38438954274</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39218928756958615</v>
+        <v>0.48354807481865658</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
+      <c r="A48" s="73"/>
       <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
@@ -3226,15 +3220,15 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>199862.24852747389</v>
+        <v>210772.27243241895</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84679119953881443</v>
+        <v>0.82208016519996441</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
+      <c r="A49" s="73"/>
       <c r="B49" s="8" t="s">
         <v>156</v>
       </c>
@@ -3243,15 +3237,15 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>110946.48449982979</v>
+        <v>244823.10440853433</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4700662950927964</v>
+        <v>0.9548894443953414</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="77" t="s">
+      <c r="A50" s="73" t="s">
         <v>157</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -3262,15 +3256,15 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>147038.57033640589</v>
+        <v>244173.28699066883</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6229839215309424</v>
+        <v>0.9523549458862931</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
+      <c r="A51" s="73"/>
       <c r="B51" s="8" t="s">
         <v>159</v>
       </c>
@@ -3279,15 +3273,15 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>82487.783842880133</v>
+        <v>169000.93596357596</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34949036119749777</v>
+        <v>0.65915841658172447</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
+      <c r="A52" s="73"/>
       <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
@@ -3296,15 +3290,15 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>223.80950728675674</v>
+        <v>112783.07055333408</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4825272176146669E-4</v>
+        <v>0.43989052356007785</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="77" t="s">
+      <c r="A53" s="73" t="s">
         <v>161</v>
       </c>
       <c r="B53" s="8" t="s">
@@ -3315,15 +3309,15 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>91475.066533959849</v>
+        <v>38333.05594583667</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38756834714354127</v>
+        <v>0.14951134037176084</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
+      <c r="A54" s="73"/>
       <c r="B54" s="8" t="s">
         <v>163</v>
       </c>
@@ -3332,11 +3326,11 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>166964.22139687731</v>
+        <v>52980.370230119974</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70740639794858873</v>
+        <v>0.20664061267877298</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3351,12 +3345,12 @@
       <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3386,16 +3380,16 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>85209.470201106524</v>
+        <v>142483.03057299677</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.47049083062409491</v>
+        <v>0.8253185058117426</v>
       </c>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="78" t="s">
+      <c r="A59" s="75" t="s">
         <v>167</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3406,15 +3400,15 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>6431.4350555098217</v>
+        <v>41042.605140618885</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5511677448881063E-2</v>
+        <v>0.23773512826794507</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
+      <c r="A60" s="76"/>
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
@@ -3423,15 +3417,15 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>120614.57891629079</v>
+        <v>62782.72837082691</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6659829392879405</v>
+        <v>0.36366258747738511</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
+      <c r="A61" s="77"/>
       <c r="B61" s="8" t="s">
         <v>170</v>
       </c>
@@ -3440,15 +3434,15 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>60953.922671206761</v>
+        <v>104465.41217848835</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33656190608494718</v>
+        <v>0.60510530651569139</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="77" t="s">
+      <c r="A62" s="73" t="s">
         <v>171</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -3459,15 +3453,15 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>157844.35055349706</v>
+        <v>141177.86722076283</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87155006862454654</v>
+        <v>0.81775847944667945</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="77"/>
+      <c r="A63" s="73"/>
       <c r="B63" s="8" t="s">
         <v>173</v>
       </c>
@@ -3476,15 +3470,15 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>173316.07130397239</v>
+        <v>56475.84804247901</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.95697839871385459</v>
+        <v>0.32713062273749383</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A64" s="77"/>
+      <c r="A64" s="73"/>
       <c r="B64" s="8" t="s">
         <v>174</v>
       </c>
@@ -3493,15 +3487,15 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>174705.63739702167</v>
+        <v>4315.5445932340017</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.96465099782499597</v>
+        <v>2.4997354429705965E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="73" t="s">
         <v>175</v>
       </c>
       <c r="B65" s="8" t="s">
@@ -3512,15 +3506,15 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>115872.83241004577</v>
+        <v>16371.50911016691</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6398010108348382</v>
+        <v>9.4830306334367176E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="77"/>
+      <c r="A66" s="73"/>
       <c r="B66" s="8" t="s">
         <v>177</v>
       </c>
@@ -3529,15 +3523,15 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>55999.44209797903</v>
+        <v>157961.4871269016</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30920534965163904</v>
+        <v>0.91497589577577787</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="77"/>
+      <c r="A67" s="73"/>
       <c r="B67" s="8" t="s">
         <v>178</v>
       </c>
@@ -3546,15 +3540,15 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>60083.881478108051</v>
+        <v>122093.47116505934</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33175790480842149</v>
+        <v>0.70721405058612585</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="77" t="s">
+      <c r="A68" s="73" t="s">
         <v>179</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -3565,15 +3559,15 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>46486.598292422452</v>
+        <v>110949.25053692488</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25667943001958071</v>
+        <v>0.64266228270008108</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="77"/>
+      <c r="A69" s="73"/>
       <c r="B69" s="8" t="s">
         <v>181</v>
       </c>
@@ -3582,15 +3576,15 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>75733.521516620182</v>
+        <v>65047.583319605787</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41816863032179352</v>
+        <v>0.37678153009595095</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="77"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="8" t="s">
         <v>182</v>
       </c>
@@ -3599,15 +3593,15 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>65880.743068254102</v>
+        <v>64434.563705660927</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36376573466728279</v>
+        <v>0.37323067614667971</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="A71" s="73" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -3618,15 +3612,15 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>111880.51759206716</v>
+        <v>142673.67044944587</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61775712873592981</v>
+        <v>0.82642276796384861</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="77"/>
+      <c r="A72" s="73"/>
       <c r="B72" s="8" t="s">
         <v>185</v>
       </c>
@@ -3635,11 +3629,11 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>88986.997445898276</v>
+        <v>167725.42846682802</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49134874614583868</v>
+        <v>0.97153253585491428</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3659,18 +3653,18 @@
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="85"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="84"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="78" t="s">
+      <c r="A76" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="74" t="s">
+      <c r="B76" s="78" t="s">
         <v>187</v>
       </c>
       <c r="C76" s="9" t="s">
@@ -3681,8 +3675,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="79"/>
-      <c r="B77" s="74"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="78"/>
       <c r="C77" s="9" t="s">
         <v>77</v>
       </c>
@@ -3691,8 +3685,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="79"/>
-      <c r="B78" s="74"/>
+      <c r="A78" s="76"/>
+      <c r="B78" s="78"/>
       <c r="C78" s="9" t="s">
         <v>78</v>
       </c>
@@ -3701,8 +3695,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
-      <c r="B79" s="75" t="s">
+      <c r="A79" s="76"/>
+      <c r="B79" s="79" t="s">
         <v>188</v>
       </c>
       <c r="C79" s="9" t="s">
@@ -3713,8 +3707,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
-      <c r="B80" s="75"/>
+      <c r="A80" s="76"/>
+      <c r="B80" s="79"/>
       <c r="C80" s="9" t="s">
         <v>80</v>
       </c>
@@ -3723,8 +3717,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
-      <c r="B81" s="75"/>
+      <c r="A81" s="76"/>
+      <c r="B81" s="79"/>
       <c r="C81" s="9" t="s">
         <v>81</v>
       </c>
@@ -3733,7 +3727,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
+      <c r="A82" s="76"/>
       <c r="B82" s="13" t="s">
         <v>189</v>
       </c>
@@ -3745,8 +3739,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
-      <c r="B83" s="76" t="s">
+      <c r="A83" s="76"/>
+      <c r="B83" s="80" t="s">
         <v>190</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3757,8 +3751,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
-      <c r="B84" s="76"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="9" t="s">
         <v>84</v>
       </c>
@@ -3767,8 +3761,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="76"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="9" t="s">
         <v>85</v>
       </c>
@@ -3777,8 +3771,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="74" t="s">
+      <c r="A86" s="76"/>
+      <c r="B86" s="78" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="9" t="s">
@@ -3789,8 +3783,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="74"/>
+      <c r="A87" s="76"/>
+      <c r="B87" s="78"/>
       <c r="C87" s="9" t="s">
         <v>87</v>
       </c>
@@ -3799,8 +3793,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="74"/>
+      <c r="A88" s="76"/>
+      <c r="B88" s="78"/>
       <c r="C88" s="9" t="s">
         <v>88</v>
       </c>
@@ -3809,8 +3803,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
-      <c r="B89" s="75" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="79" t="s">
         <v>192</v>
       </c>
       <c r="C89" s="9" t="s">
@@ -3821,8 +3815,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
-      <c r="B90" s="75"/>
+      <c r="A90" s="76"/>
+      <c r="B90" s="79"/>
       <c r="C90" s="9" t="s">
         <v>90</v>
       </c>
@@ -3831,11 +3825,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="79"/>
-      <c r="B91" s="76" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="82" t="s">
+      <c r="C91" s="81" t="s">
         <v>91</v>
       </c>
       <c r="D91" s="10">
@@ -3843,13 +3837,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
-      <c r="B92" s="76"/>
-      <c r="C92" s="82"/>
+      <c r="A92" s="76"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="81"/>
       <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
+      <c r="A93" s="76"/>
       <c r="B93" s="8" t="s">
         <v>194</v>
       </c>
@@ -3861,7 +3855,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
+      <c r="A94" s="76"/>
       <c r="B94" s="13" t="s">
         <v>195</v>
       </c>
@@ -3873,7 +3867,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
+      <c r="A95" s="77"/>
       <c r="B95" s="11"/>
       <c r="C95" s="14" t="s">
         <v>40</v>
@@ -3885,6 +3879,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A76:A95"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B86:B88"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A71:A72"/>
@@ -3901,24 +3913,6 @@
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A76:A95"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
@@ -3934,8 +3928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3949,13 +3943,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="89" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
@@ -3975,54 +3969,54 @@
       </c>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <v>1</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>3000000</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="64">
         <v>3000000</v>
       </c>
     </row>
     <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93"/>
-      <c r="C5" s="61" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="61">
         <v>1</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>1000000</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="64">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
-      <c r="C6" s="63" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="64">
+      <c r="D6" s="61"/>
+      <c r="E6" s="63">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="63">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
     </row>
     <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -4039,7 +4033,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="90" t="s">
         <v>211</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -4056,7 +4050,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="28" t="s">
         <v>213</v>
       </c>
@@ -4071,7 +4065,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="94"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="46" t="s">
         <v>214</v>
       </c>
@@ -4088,7 +4082,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="90" t="s">
         <v>210</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -4106,7 +4100,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="93"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="28" t="s">
         <v>100</v>
       </c>
@@ -4122,7 +4116,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="93"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="28" t="s">
         <v>201</v>
       </c>
@@ -4138,7 +4132,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="93"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="28" t="s">
         <v>202</v>
       </c>
@@ -4154,14 +4148,14 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="94"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="46" t="s">
         <v>214</v>
       </c>
       <c r="D15" s="29">
         <v>4</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <f>SUM(E11:E14)</f>
         <v>6000000</v>
       </c>
@@ -4171,111 +4165,111 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="51">
         <v>1</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>1200000</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="57">
         <v>1200000</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="88"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="51">
         <v>1</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="57">
         <v>2400000</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="57">
         <v>2400000</v>
       </c>
     </row>
     <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="88"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="51">
         <v>1</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="57">
         <v>2000000</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="57">
         <v>2000000</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="88"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="51">
         <f>SUM(D16:D18)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="54">
         <f>SUM(E16:E18)</f>
         <v>5600000</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="54">
         <f>SUM(F16:F18)</f>
         <v>5600000</v>
       </c>
     </row>
     <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="51"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="49"/>
+      <c r="C20" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="67">
+      <c r="D20" s="51"/>
+      <c r="E20" s="65">
         <f>SUM(E6,E7,E10,E15,E19)</f>
         <v>20110000</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="54">
         <f>SUM(E6,E7,E10,E15,E19)</f>
         <v>20110000</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="66"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="68">
+      <c r="D21" s="51"/>
+      <c r="E21" s="66">
         <f>E20*10%</f>
         <v>2011000</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="54">
         <f>E20*10%</f>
         <v>2011000</v>
       </c>
     </row>
     <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
-      <c r="C22" s="89" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="59">
+      <c r="D22" s="88"/>
+      <c r="E22" s="58">
         <f>SUM(E20,E21)</f>
         <v>22121000</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="58">
         <f>E22</f>
         <v>22121000</v>
       </c>
@@ -4285,11 +4279,9 @@
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
       <c r="C25" s="1"/>
     </row>
   </sheetData>

--- a/Costo por actividad.xlsx
+++ b/Costo por actividad.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="231">
   <si>
     <t>Funcionalidades</t>
   </si>
@@ -707,6 +707,18 @@
   </si>
   <si>
     <t>Sub-Total</t>
+  </si>
+  <si>
+    <t>Costos Indirectos</t>
+  </si>
+  <si>
+    <t>Costos Directos</t>
+  </si>
+  <si>
+    <t>Total Costos Indirectos</t>
+  </si>
+  <si>
+    <t>Total Costos Directos</t>
   </si>
 </sst>
 </file>
@@ -897,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1056,15 +1068,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1107,7 +1110,7 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1209,9 +1212,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="8" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1239,9 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1299,12 +1302,12 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1317,6 +1320,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Normal" xfId="6"/>
@@ -2415,8 +2419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,11 +2474,11 @@
       </c>
       <c r="D4" s="16">
         <f ca="1">(E4/SUM($E$4:$E$18))*$D$19</f>
-        <v>91177.338459436083</v>
+        <v>5925.7006373702288</v>
       </c>
       <c r="E4" s="19">
         <f t="shared" ref="E4:E18" ca="1" si="0">RAND()</f>
-        <v>0.79635000150252089</v>
+        <v>4.8751954894463934E-2</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -2491,11 +2495,11 @@
       </c>
       <c r="D5" s="16">
         <f t="shared" ref="D5:D18" ca="1" si="1">(E5/SUM($E$4:$E$18))*$D$19</f>
-        <v>8232.1920870235408</v>
+        <v>97560.992251371688</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1900609204411103E-2</v>
+        <v>0.80265429942623889</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2508,11 +2512,11 @@
       </c>
       <c r="D6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>71361.973733848965</v>
+        <v>14734.126886621438</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62328105700799985</v>
+        <v>0.1212206848344366</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2525,11 +2529,11 @@
       </c>
       <c r="D7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>67554.000434290079</v>
+        <v>115439.90366882115</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59002192053765423</v>
+        <v>0.94974777179787628</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2544,11 +2548,11 @@
       </c>
       <c r="D8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>100855.41939697726</v>
+        <v>58546.740671115491</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88087911695351939</v>
+        <v>0.48167604728726177</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2561,11 +2565,11 @@
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>10220.965566302837</v>
+        <v>13106.03281656503</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9270712236282801E-2</v>
+        <v>0.10782602089094062</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2578,11 +2582,11 @@
       </c>
       <c r="D10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>19524.916691553644</v>
+        <v>85228.967053507076</v>
       </c>
       <c r="E10" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17053214866074196</v>
+        <v>0.70119619801420063</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2597,11 +2601,11 @@
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>95562.785119003849</v>
+        <v>106845.71820746112</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83465283544068991</v>
+        <v>0.87904164477475644</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,11 +2618,11 @@
       </c>
       <c r="D12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>41419.57378100232</v>
+        <v>1556.825836012152</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36176179520100216</v>
+        <v>1.2808325560213163E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2631,11 +2635,11 @@
       </c>
       <c r="D13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86346.994609919653</v>
+        <v>83721.119149680031</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75416140072940852</v>
+        <v>0.6887908239506686</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -2650,11 +2654,11 @@
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>7524.4300159994737</v>
+        <v>48817.840172355056</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5718959949819244E-2</v>
+        <v>0.40163438684678643</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2667,11 +2671,11 @@
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>71330.861141444941</v>
+        <v>111682.29607187511</v>
       </c>
       <c r="E15" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62300931719384944</v>
+        <v>0.91883316316541819</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -2684,11 +2688,11 @@
       </c>
       <c r="D16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>69283.487189833031</v>
+        <v>18719.53158093592</v>
       </c>
       <c r="E16" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60512739305578389</v>
+        <v>0.15400942692310737</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2703,11 +2707,11 @@
       </c>
       <c r="D17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>24896.624497414396</v>
+        <v>23716.002668475168</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21744906454737367</v>
+        <v>0.19511641966503379</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2720,11 +2724,11 @@
       </c>
       <c r="D18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34708.437275949771</v>
+        <v>14398.202327833387</v>
       </c>
       <c r="E18" s="19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30314620435152917</v>
+        <v>0.11845696456907306</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2774,11 +2778,11 @@
       </c>
       <c r="D22" s="22">
         <f ca="1">(E22/SUM($E$22:$E$36))*$D$37</f>
-        <v>7386.5021196400066</v>
+        <v>69184.384478122534</v>
       </c>
       <c r="E22" s="19">
         <f t="shared" ref="E22:E36" ca="1" si="2">RAND()</f>
-        <v>2.0374916567785228E-2</v>
+        <v>0.21808490573195127</v>
       </c>
       <c r="G22" s="17"/>
     </row>
@@ -2794,11 +2798,11 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" ref="D23:D36" ca="1" si="3">(E23/SUM($E$22:$E$36))*$D$37</f>
-        <v>275966.35852175381</v>
+        <v>312250.9691266439</v>
       </c>
       <c r="E23" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76122519689607515</v>
+        <v>0.9842860304441714</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2811,11 +2815,11 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>261803.21527396049</v>
+        <v>43978.822086474407</v>
       </c>
       <c r="E24" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72215760342120272</v>
+        <v>0.13863124375940539</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2828,11 +2832,11 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>105637.83574567604</v>
+        <v>215126.87434351354</v>
       </c>
       <c r="E25" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29139125053475901</v>
+        <v>0.67812880703520928</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2847,11 +2851,11 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>23316.170338388027</v>
+        <v>142564.15293622817</v>
       </c>
       <c r="E26" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4315289920755858E-2</v>
+        <v>0.44939461539452485</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2864,11 +2868,11 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>17047.531221990037</v>
+        <v>184843.18285475872</v>
       </c>
       <c r="E27" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7023885014696121E-2</v>
+        <v>0.58266772787175969</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2881,11 +2885,11 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>50450.588511895534</v>
+        <v>158635.72777507713</v>
       </c>
       <c r="E28" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13916282904629196</v>
+        <v>0.50005587241275729</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2900,11 +2904,11 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>206170.40449882453</v>
+        <v>72225.917932969358</v>
       </c>
       <c r="E29" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56870014011649817</v>
+        <v>0.22767251053301152</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2917,11 +2921,11 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>208773.05239354991</v>
+        <v>10452.968673242738</v>
       </c>
       <c r="E30" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57587928023606205</v>
+        <v>3.2950133255056246E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2934,11 +2938,11 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>56466.962071976508</v>
+        <v>61167.025274719854</v>
       </c>
       <c r="E31" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15575838501335004</v>
+        <v>0.19281236714853489</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2953,11 +2957,11 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>207689.91636273061</v>
+        <v>188868.94723981016</v>
       </c>
       <c r="E32" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57289155940392056</v>
+        <v>0.59535785228401938</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2970,11 +2974,11 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>280824.34149437287</v>
+        <v>312491.54359890532</v>
       </c>
       <c r="E33" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7746254499727856</v>
+        <v>0.98504437586417326</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2987,11 +2991,11 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>87383.683895541006</v>
+        <v>189890.45872711399</v>
       </c>
       <c r="E34" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24103902495652951</v>
+        <v>0.59857788868519901</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3006,11 +3010,11 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>14758.385407388105</v>
+        <v>9559.3689941530247</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0709508571210806E-2</v>
+        <v>3.0133303948176926E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3023,11 +3027,11 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" ca="1" si="3"/>
-        <v>196325.05214231223</v>
+        <v>28759.655958267362</v>
       </c>
       <c r="E36" s="19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54154273467678204</v>
+        <v>9.0656972752651055E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3077,11 +3081,11 @@
       </c>
       <c r="D40" s="22">
         <f ca="1">(E40/SUM($E$40:$E$54))*$D$55</f>
-        <v>213903.95700716184</v>
+        <v>65977.755963252159</v>
       </c>
       <c r="E40" s="19">
         <f t="shared" ref="E40:E54" ca="1" si="4">RAND()</f>
-        <v>0.83429474989295005</v>
+        <v>0.22574991503183894</v>
       </c>
       <c r="G40" s="17"/>
     </row>
@@ -3097,11 +3101,11 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" ref="D41:D54" ca="1" si="5">(E41/SUM($E$40:$E$54))*$D$55</f>
-        <v>44229.725547387265</v>
+        <v>15560.49207721968</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.17251026268838865</v>
+        <v>5.3241879979101903E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3114,11 +3118,11 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>52776.798656325242</v>
+        <v>7832.8807545559048</v>
       </c>
       <c r="E42" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2058466175717133</v>
+        <v>2.6801035272863816E-2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3131,11 +3135,11 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>13034.125435875969</v>
+        <v>201761.48324691461</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0837313029386322E-2</v>
+        <v>0.69034839143449467</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3150,11 +3154,11 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>64888.070499296358</v>
+        <v>12359.90879564341</v>
       </c>
       <c r="E44" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25308450252948811</v>
+        <v>4.2290743595036373E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3167,11 +3171,11 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>206981.97890945451</v>
+        <v>140153.16598576063</v>
       </c>
       <c r="E45" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.80729679218056483</v>
+        <v>0.47954897602687596</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3184,11 +3188,11 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>7342.8630304674343</v>
+        <v>43616.194043617041</v>
       </c>
       <c r="E46" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8639545341823225E-2</v>
+        <v>0.14923745064689531</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3203,11 +3207,11 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>123976.38438954274</v>
+        <v>75613.661732394801</v>
       </c>
       <c r="E47" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48354807481865658</v>
+        <v>0.25872019231514554</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,11 +3224,11 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>210772.27243241895</v>
+        <v>24929.373173569471</v>
       </c>
       <c r="E48" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82208016519996441</v>
+        <v>8.5298503921001023E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3237,11 +3241,11 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>244823.10440853433</v>
+        <v>259301.15588148686</v>
       </c>
       <c r="E49" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9548894443953414</v>
+        <v>0.88722650616530441</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3256,11 +3260,11 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>244173.28699066883</v>
+        <v>273468.55884555727</v>
       </c>
       <c r="E50" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9523549458862931</v>
+        <v>0.93570178345636712</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3273,11 +3277,11 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>169000.93596357596</v>
+        <v>122608.0292949354</v>
       </c>
       <c r="E51" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65915841658172447</v>
+        <v>0.41951642324678651</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3290,11 +3294,11 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>112783.07055333408</v>
+        <v>224154.32809449523</v>
       </c>
       <c r="E52" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43989052356007785</v>
+        <v>0.76696789368731577</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3309,11 +3313,11 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>38333.05594583667</v>
+        <v>288906.13539123815</v>
       </c>
       <c r="E53" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14951134037176084</v>
+        <v>0.98852309486056289</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3326,11 +3330,11 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" ca="1" si="5"/>
-        <v>52980.370230119974</v>
+        <v>43756.87671935941</v>
       </c>
       <c r="E54" s="19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.20664061267877298</v>
+        <v>0.14971881139691812</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -3380,11 +3384,11 @@
       </c>
       <c r="D58" s="22">
         <f ca="1">(E58/SUM($E$58:$E$72))*$D$73</f>
-        <v>142483.03057299677</v>
+        <v>188465.78820550826</v>
       </c>
       <c r="E58" s="19">
         <f t="shared" ref="E58:E72" ca="1" si="6">RAND()</f>
-        <v>0.8253185058117426</v>
+        <v>0.75770965382360267</v>
       </c>
       <c r="G58" s="17"/>
     </row>
@@ -3400,11 +3404,11 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D72" ca="1" si="7">(E59/SUM($E$58:$E$72))*$D$73</f>
-        <v>41042.605140618885</v>
+        <v>156692.03654264589</v>
       </c>
       <c r="E59" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23773512826794507</v>
+        <v>0.62996615935503497</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3417,11 +3421,11 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>62782.72837082691</v>
+        <v>118886.84198939639</v>
       </c>
       <c r="E60" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36366258747738511</v>
+        <v>0.47797379431931331</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3434,11 +3438,11 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>104465.41217848835</v>
+        <v>108772.32784674443</v>
       </c>
       <c r="E61" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60510530651569139</v>
+        <v>0.43730930511628696</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3453,11 +3457,11 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>141177.86722076283</v>
+        <v>25316.466036026897</v>
       </c>
       <c r="E62" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81775847944667945</v>
+        <v>0.10178256169909083</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3470,11 +3474,11 @@
       </c>
       <c r="D63" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>56475.84804247901</v>
+        <v>15939.593466602721</v>
       </c>
       <c r="E63" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32713062273749383</v>
+        <v>6.4083693717921775E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3487,11 +3491,11 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>4315.5445932340017</v>
+        <v>157015.67941128582</v>
       </c>
       <c r="E64" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>2.4997354429705965E-2</v>
+        <v>0.6312673362333141</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3506,11 +3510,11 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>16371.50911016691</v>
+        <v>96320.501050598978</v>
       </c>
       <c r="E65" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4830306334367176E-2</v>
+        <v>0.38724786181130477</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3523,11 +3527,11 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>157961.4871269016</v>
+        <v>63362.443885818517</v>
       </c>
       <c r="E66" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.91497589577577787</v>
+        <v>0.25474297419852776</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3540,11 +3544,11 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>122093.47116505934</v>
+        <v>48493.728194806863</v>
       </c>
       <c r="E67" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70721405058612585</v>
+        <v>0.19496464771121291</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3559,11 +3563,11 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>110949.25053692488</v>
+        <v>121996.07543301159</v>
       </c>
       <c r="E68" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64266228270008108</v>
+        <v>0.49047418613392479</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3576,11 +3580,11 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>65047.583319605787</v>
+        <v>106190.42174787476</v>
       </c>
       <c r="E69" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37678153009595095</v>
+        <v>0.42692898519187528</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3593,11 +3597,11 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>64434.563705660927</v>
+        <v>7473.3586620047436</v>
       </c>
       <c r="E70" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37323067614667971</v>
+        <v>3.0045962498575829E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3612,11 +3616,11 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>142673.67044944587</v>
+        <v>120319.66299691358</v>
       </c>
       <c r="E71" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82642276796384861</v>
+        <v>0.48373432157433538</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3629,11 +3633,11 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" ca="1" si="7"/>
-        <v>167725.42846682802</v>
+        <v>64755.074530760539</v>
       </c>
       <c r="E72" s="19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97153253585491428</v>
+        <v>0.26034191973623211</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3926,23 +3930,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F25"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="89" t="s">
         <v>200</v>
       </c>
@@ -3951,8 +3955,8 @@
       <c r="E2" s="89"/>
       <c r="F2" s="89"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="66" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3968,55 +3972,61 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="86" t="s">
+        <v>227</v>
+      </c>
       <c r="B4" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <v>1</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="62">
         <v>3000000</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
       <c r="B5" s="91"/>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <v>1</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="62">
         <v>1000000</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="63">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
       <c r="B6" s="92"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="63">
+      <c r="D6" s="60"/>
+      <c r="E6" s="62">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="62">
         <f>SUM(E4,E5)</f>
         <v>4000000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="59" t="s">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="58" t="s">
         <v>220</v>
       </c>
       <c r="C7" s="28" t="s">
@@ -4032,7 +4042,10 @@
         <v>3310000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="86" t="s">
+        <v>228</v>
+      </c>
       <c r="B8" s="90" t="s">
         <v>211</v>
       </c>
@@ -4049,7 +4062,8 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
       <c r="B9" s="91"/>
       <c r="C9" s="28" t="s">
         <v>213</v>
@@ -4064,7 +4078,8 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
       <c r="B10" s="92"/>
       <c r="C10" s="46" t="s">
         <v>214</v>
@@ -4081,7 +4096,8 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
       <c r="B11" s="90" t="s">
         <v>210</v>
       </c>
@@ -4099,7 +4115,8 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
       <c r="B12" s="91"/>
       <c r="C12" s="28" t="s">
         <v>100</v>
@@ -4115,7 +4132,8 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
       <c r="B13" s="91"/>
       <c r="C13" s="28" t="s">
         <v>201</v>
@@ -4131,7 +4149,8 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
       <c r="B14" s="91"/>
       <c r="C14" s="28" t="s">
         <v>202</v>
@@ -4147,7 +4166,8 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
       <c r="B15" s="92"/>
       <c r="C15" s="46" t="s">
         <v>214</v>
@@ -4155,7 +4175,7 @@
       <c r="D15" s="29">
         <v>4</v>
       </c>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <f>SUM(E11:E14)</f>
         <v>6000000</v>
       </c>
@@ -4164,130 +4184,159 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
       <c r="B16" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="50">
         <v>1</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="54">
         <v>1200000</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="56">
         <v>1200000</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
       <c r="B17" s="86"/>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <v>1</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <v>2400000</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="56">
         <v>2400000</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
       <c r="B18" s="86"/>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="50">
         <v>1</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <v>2000000</v>
       </c>
-      <c r="F18" s="57">
+      <c r="F18" s="56">
         <v>2000000</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
       <c r="B19" s="86"/>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="50">
         <f>SUM(D16:D18)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="53">
         <f>SUM(E16:E18)</f>
         <v>5600000</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="53">
         <f>SUM(F16:F18)</f>
         <v>5600000</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="53" t="s">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="93"/>
+      <c r="C20" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53">
+        <f>SUM(F6,F7)</f>
+        <v>7310000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53">
+        <f>SUM(F10,F15,F19)</f>
+        <v>12800000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="65">
+      <c r="D22" s="50"/>
+      <c r="E22" s="64">
         <f>SUM(E6,E7,E10,E15,E19)</f>
         <v>20110000</v>
       </c>
-      <c r="F20" s="54">
+      <c r="F22" s="53">
         <f>SUM(E6,E7,E10,E15,E19)</f>
         <v>20110000</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="53" t="s">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+      <c r="C23" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="66">
-        <f>E20*10%</f>
+      <c r="D23" s="50"/>
+      <c r="E23" s="65">
+        <f>E22*10%</f>
         <v>2011000</v>
       </c>
-      <c r="F21" s="54">
-        <f>E20*10%</f>
+      <c r="F23" s="53">
+        <f>E22*10%</f>
         <v>2011000</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="87" t="s">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="58">
-        <f>SUM(E20,E21)</f>
+      <c r="D24" s="88"/>
+      <c r="E24" s="57">
+        <f>SUM(E22,E23)</f>
         <v>22121000</v>
       </c>
-      <c r="F22" s="58">
-        <f>E22</f>
+      <c r="F24" s="57">
+        <f>E24</f>
         <v>22121000</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A19"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B8:B10"/>
